--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilbhatia/github/customer-seed-bsdf/99-exceldmd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\git\Beiersdorf\seeddata-bsdf\99-exceldmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="23540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -46,8 +46,8 @@
   </definedNames>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
     <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -67,7 +67,7 @@
     <author>Eric Sambach</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1">
+    <comment ref="B6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="513">
   <si>
     <t>ACTION</t>
   </si>
@@ -715,9 +715,6 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>England (UK)</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -1225,33 +1222,6 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>NestedGrid</t>
-  </si>
-  <si>
-    <t>RichTextEditor</t>
-  </si>
-  <si>
-    <t>adescription</t>
-  </si>
-  <si>
-    <t>NART ID</t>
-  </si>
-  <si>
-    <t>NART Name</t>
-  </si>
-  <si>
-    <t>Master Product ID</t>
-  </si>
-  <si>
-    <t>Master Product Name</t>
-  </si>
-  <si>
-    <t>Product Version ID</t>
-  </si>
-  <si>
-    <t>Product Version Name</t>
-  </si>
-  <si>
     <t>lifecyclestage</t>
   </si>
   <si>
@@ -1264,9 +1234,6 @@
     <t>alternateimages</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>DateTime</t>
   </si>
   <si>
@@ -1294,22 +1261,457 @@
     <t>Alternate Images</t>
   </si>
   <si>
-    <t>[[uniqueid]]</t>
-  </si>
-  <si>
     <t>[[systemdatetime]]</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>richTextEditor</t>
+    <t>aalcoholcontent</t>
+  </si>
+  <si>
+    <t>Alcohol Content In %</t>
+  </si>
+  <si>
+    <t>aassortmentranking</t>
+  </si>
+  <si>
+    <t>Assortment Ranking</t>
+  </si>
+  <si>
+    <t>abacksidetext</t>
+  </si>
+  <si>
+    <t>Backside Text</t>
+  </si>
+  <si>
+    <t>TextArea</t>
+  </si>
+  <si>
+    <t>abatteriesincluded</t>
+  </si>
+  <si>
+    <t>Batteries Included</t>
+  </si>
+  <si>
+    <t>abatteriesrequired</t>
+  </si>
+  <si>
+    <t>Batteries Required</t>
+  </si>
+  <si>
+    <t>acustomerwishdateofdelivery</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Customer Wish Date Of Delivery</t>
+  </si>
+  <si>
+    <t>afrontsidetext</t>
+  </si>
+  <si>
+    <t>Frontside Text</t>
+  </si>
+  <si>
+    <t>agender</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>dgender</t>
+  </si>
+  <si>
+    <t>apageurl</t>
+  </si>
+  <si>
+    <t>Page URL</t>
+  </si>
+  <si>
+    <t>apao</t>
+  </si>
+  <si>
+    <t>PAO (period-after-opening) in months (M)</t>
+  </si>
+  <si>
+    <t>aproductname</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>aprojectname</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>aprojectnumber</t>
+  </si>
+  <si>
+    <t>Project Number</t>
+  </si>
+  <si>
+    <t>aseotextpagedescription</t>
+  </si>
+  <si>
+    <t>SEO Text Page Description</t>
+  </si>
+  <si>
+    <t>aseotextpagekeywords</t>
+  </si>
+  <si>
+    <t>SEO Text Page Keywords</t>
+  </si>
+  <si>
+    <t>aseotextpagetitle</t>
+  </si>
+  <si>
+    <t>SEO Text Page Title</t>
+  </si>
+  <si>
+    <t>avariationedition</t>
+  </si>
+  <si>
+    <t>Variation Edition</t>
+  </si>
+  <si>
+    <t>awebsiteemotionaldescription</t>
+  </si>
+  <si>
+    <t>Website Emotional Description</t>
+  </si>
+  <si>
+    <t>sapplicationformsdescription</t>
+  </si>
+  <si>
+    <t>Master Data Key</t>
+  </si>
+  <si>
+    <t>Application Forms Description</t>
+  </si>
+  <si>
+    <t>sapplicationformskey</t>
+  </si>
+  <si>
+    <t>Application Forms Key</t>
+  </si>
+  <si>
+    <t>sbgrdescription</t>
+  </si>
+  <si>
+    <t>BGR Description</t>
+  </si>
+  <si>
+    <t>sbgrkey</t>
+  </si>
+  <si>
+    <t>BGR Key</t>
+  </si>
+  <si>
+    <t>sdangerousgoodsdescription</t>
+  </si>
+  <si>
+    <t>Dangerous Goods Description</t>
+  </si>
+  <si>
+    <t>sdangerousgoodskey</t>
+  </si>
+  <si>
+    <t>Dangerous Goods Key</t>
+  </si>
+  <si>
+    <t>sfranchisedetaildescription</t>
+  </si>
+  <si>
+    <t>Franchise Detail Description</t>
+  </si>
+  <si>
+    <t>sfranchisedetailkey</t>
+  </si>
+  <si>
+    <t>Franchise Detail Key</t>
+  </si>
+  <si>
+    <t>sfranchiserangedescription</t>
+  </si>
+  <si>
+    <t>Franchise Range Description</t>
+  </si>
+  <si>
+    <t>sfranchiserangekey</t>
+  </si>
+  <si>
+    <t>Franchise Range Key</t>
+  </si>
+  <si>
+    <t>sgenderdescriptiontype</t>
+  </si>
+  <si>
+    <t>Gender Description Type</t>
+  </si>
+  <si>
+    <t>sgenderkey</t>
+  </si>
+  <si>
+    <t>Gender Key</t>
+  </si>
+  <si>
+    <t>sgpcclassificationdescription</t>
+  </si>
+  <si>
+    <t>GPC Classification Description</t>
+  </si>
+  <si>
+    <t>sgpcclassificationkey</t>
+  </si>
+  <si>
+    <t>GPC Classification Key</t>
+  </si>
+  <si>
+    <t>sgtin</t>
+  </si>
+  <si>
+    <t>GTIN</t>
+  </si>
+  <si>
+    <t>sgtinpiece</t>
+  </si>
+  <si>
+    <t>GTIN Piece</t>
+  </si>
+  <si>
+    <t>smaterialclusterdescription</t>
+  </si>
+  <si>
+    <t>Material Cluster Description</t>
+  </si>
+  <si>
+    <t>smaterialclusterkey</t>
+  </si>
+  <si>
+    <t>Material Cluster Key</t>
+  </si>
+  <si>
+    <t>smaterialstatusglobaldescription</t>
+  </si>
+  <si>
+    <t>Material Status Global Description</t>
+  </si>
+  <si>
+    <t>smaterialstatusglobalkey</t>
+  </si>
+  <si>
+    <t>Material Status Global Key</t>
+  </si>
+  <si>
+    <t>smaximumstorageinmonth</t>
+  </si>
+  <si>
+    <t>Maximum Storage in Month</t>
+  </si>
+  <si>
+    <t>smaximumstoragekey</t>
+  </si>
+  <si>
+    <t>Maximum Storage Key</t>
+  </si>
+  <si>
+    <t>smaximumstorageunit</t>
+  </si>
+  <si>
+    <t>Maximum Storage Unit</t>
+  </si>
+  <si>
+    <t>snartdescription</t>
+  </si>
+  <si>
+    <t>NART Description</t>
+  </si>
+  <si>
+    <t>snartkey</t>
+  </si>
+  <si>
+    <t>snominalnetcontentkey</t>
+  </si>
+  <si>
+    <t>Nominal Net Content Key</t>
+  </si>
+  <si>
+    <t>snominalnetcontentunit</t>
+  </si>
+  <si>
+    <t>Nominal Net Content Unit</t>
+  </si>
+  <si>
+    <t>spgrdescription</t>
+  </si>
+  <si>
+    <t>PGR Description</t>
+  </si>
+  <si>
+    <t>spgrkey</t>
+  </si>
+  <si>
+    <t>PGR Key</t>
+  </si>
+  <si>
+    <t>sproductcodekey</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>sproductversionid</t>
+  </si>
+  <si>
+    <t>Product Version Id</t>
+  </si>
+  <si>
+    <t>spvkey</t>
+  </si>
+  <si>
+    <t>ssequencenumberkey</t>
+  </si>
+  <si>
+    <t>Sequence Number</t>
+  </si>
+  <si>
+    <t>sspgrdescription</t>
+  </si>
+  <si>
+    <t>SPGR Description</t>
+  </si>
+  <si>
+    <t>sspgrkey</t>
+  </si>
+  <si>
+    <t>SPGR Key</t>
+  </si>
+  <si>
+    <t>sstorageinstructiondescription</t>
+  </si>
+  <si>
+    <t>Storage Instruction Description</t>
+  </si>
+  <si>
+    <t>sstorageinstructionkey</t>
+  </si>
+  <si>
+    <t>Storage Instruction Key</t>
+  </si>
+  <si>
+    <t>ssubprocessclusterdescription</t>
+  </si>
+  <si>
+    <t>Sub Process Cluster Desciption</t>
+  </si>
+  <si>
+    <t>ssubprocessclusterkey</t>
+  </si>
+  <si>
+    <t>Sub Process Cluster Key</t>
+  </si>
+  <si>
+    <t>shazarddetails</t>
+  </si>
+  <si>
+    <t>Hazard Details</t>
+  </si>
+  <si>
+    <t>shazarddetailshazardcategory</t>
+  </si>
+  <si>
+    <t>Hazard Category</t>
+  </si>
+  <si>
+    <t>shazarddetailssymbolname</t>
+  </si>
+  <si>
+    <t>Symbol Name</t>
+  </si>
+  <si>
+    <t>shazarddetailssymbol</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>shazarddetailssymbolcode</t>
+  </si>
+  <si>
+    <t>Symbol Code</t>
+  </si>
+  <si>
+    <t>shazarddetailssignalword</t>
+  </si>
+  <si>
+    <t>Signal Word</t>
+  </si>
+  <si>
+    <t>shazarddetailssymbolthumbnail</t>
+  </si>
+  <si>
+    <t>Symbol  Thumbnail</t>
+  </si>
+  <si>
+    <t>shazarddetailstransportclass</t>
+  </si>
+  <si>
+    <t>Transport Class</t>
+  </si>
+  <si>
+    <t>shazarddetailsunidnumber</t>
+  </si>
+  <si>
+    <t>Un Id Number</t>
+  </si>
+  <si>
+    <t>aregionalpv</t>
+  </si>
+  <si>
+    <t>Regional PV</t>
+  </si>
+  <si>
+    <t>dpvregions</t>
+  </si>
+  <si>
+    <t>sbgr</t>
+  </si>
+  <si>
+    <t>scritical</t>
+  </si>
+  <si>
+    <t>sexitdatepv</t>
+  </si>
+  <si>
+    <t>slaunchdatepv</t>
+  </si>
+  <si>
+    <t>slvversion</t>
+  </si>
+  <si>
+    <t>spgr</t>
+  </si>
+  <si>
+    <t>sproductcode</t>
+  </si>
+  <si>
+    <t>spv</t>
+  </si>
+  <si>
+    <t>srelaunchdatepv</t>
+  </si>
+  <si>
+    <t>sspgrproduct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -1583,7 +1985,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1641,6 +2043,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="18"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="18" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="19" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1664,7 +2069,67 @@
     <cellStyle name="Neutral" xfId="18" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2159,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C34"/>
@@ -2168,11 +2633,11 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="87.6640625" customWidth="1"/>
+    <col min="3" max="3" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2260,7 +2725,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="41" t="s">
         <v>159</v>
@@ -2271,7 +2736,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="41" t="s">
         <v>159</v>
@@ -2282,7 +2747,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="41" t="s">
         <v>159</v>
@@ -2293,7 +2758,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>159</v>
@@ -2304,7 +2769,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>159</v>
@@ -2315,18 +2780,18 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" s="41" t="s">
         <v>159</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="41" t="s">
         <v>160</v>
@@ -2337,7 +2802,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>160</v>
@@ -2348,18 +2813,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>160</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="41" t="s">
         <v>160</v>
@@ -2370,7 +2835,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B31" s="41" t="s">
         <v>162</v>
@@ -2381,7 +2846,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="41" t="s">
         <v>162</v>
@@ -2392,7 +2857,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>162</v>
@@ -2403,7 +2868,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>162</v>
@@ -2414,12 +2879,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
+      <selection activeCell="A5" sqref="A5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
       <selection activeCell="B34" sqref="B34"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
-      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -2440,7 +2905,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2448,17 +2913,17 @@
       <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2492,10 +2957,10 @@
     </row>
     <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>101</v>
@@ -2506,10 +2971,10 @@
     </row>
     <row r="3" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>101</v>
@@ -2520,10 +2985,10 @@
     </row>
     <row r="4" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>101</v>
@@ -2534,10 +2999,10 @@
     </row>
     <row r="5" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>101</v>
@@ -2548,10 +3013,10 @@
     </row>
     <row r="6" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>101</v>
@@ -2562,10 +3027,10 @@
     </row>
     <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>101</v>
@@ -2576,10 +3041,10 @@
     </row>
     <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>101</v>
@@ -2590,10 +3055,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>101</v>
@@ -2604,10 +3069,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>101</v>
@@ -2618,10 +3083,10 @@
     </row>
     <row r="11" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>101</v>
@@ -2632,10 +3097,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>101</v>
@@ -2646,12 +3111,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2664,20 +3129,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2826,11 +3291,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2848,12 +3313,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
     <col min="3" max="3" width="29" style="26" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="26" customWidth="1"/>
     <col min="5" max="16384" width="11" style="26"/>
   </cols>
   <sheetData>
@@ -2876,7 +3341,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,47 +3349,47 @@
         <v>109</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>196</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2945,18 +3410,18 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,7 +3429,7 @@
         <v>111</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,31 +3445,31 @@
         <v>112</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>209</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3018,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3026,12 +3491,12 @@
       <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,7 +3515,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
@@ -3058,7 +3523,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
         <v>98</v>
@@ -3066,7 +3531,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
         <v>148</v>
@@ -3074,14 +3539,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3092,43 +3557,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AG43"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AG109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="38.875" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.1640625" style="26" customWidth="1"/>
-    <col min="12" max="12" width="26.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="27" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="26.125" style="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.875" style="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.125" style="26" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.1640625" style="26"/>
+    <col min="21" max="21" width="17.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="7.125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3196,94 +3661,112 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="26" t="s">
+    <row r="2" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG3" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="E4" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="E5" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>230</v>
-      </c>
       <c r="C6" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>178</v>
+        <v>367</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>231</v>
+      <c r="S6" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>368</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>144</v>
@@ -3292,720 +3775,1839 @@
         <v>102</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>207</v>
+        <v>369</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
-        <v>232</v>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>370</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="E8" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="F11" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E14" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>238</v>
-      </c>
       <c r="F20" s="26" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C22" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>143</v>
-      </c>
       <c r="E28" s="26" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>129</v>
+        <v>386</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>253</v>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="25" t="s">
+        <v>387</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>133</v>
+        <v>388</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
-        <v>254</v>
+        <v>389</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>134</v>
+        <v>390</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
-        <v>255</v>
+        <v>391</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>135</v>
+        <v>392</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
-        <v>256</v>
+        <v>393</v>
       </c>
       <c r="C32" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>143</v>
-      </c>
       <c r="E33" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>130</v>
+        <v>176</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>396</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
-        <v>258</v>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
+        <v>397</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>131</v>
+        <v>176</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>398</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
-        <v>259</v>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="25" t="s">
+        <v>399</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>400</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B36" s="26" t="s">
-        <v>260</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="25" t="s">
+        <v>401</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>402</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B37" s="26" t="s">
-        <v>261</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
+        <v>403</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>169</v>
+        <v>176</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
-        <v>262</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="25" t="s">
+        <v>405</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>171</v>
+        <v>406</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>407</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B39" s="26" t="s">
-        <v>354</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="25" t="s">
+        <v>408</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>365</v>
+        <v>406</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>409</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="40" spans="2:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>103</v>
+        <v>410</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>406</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="K40" s="25" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="2:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>103</v>
+        <v>411</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>406</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG41" s="25" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B42" s="26" t="s">
-        <v>363</v>
+        <v>413</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="25" t="s">
+        <v>414</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>373</v>
+        <v>406</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>415</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B43" s="26" t="s">
-        <v>364</v>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="25" t="s">
+        <v>416</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>374</v>
+        <v>406</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>417</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="G93" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="G94" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="G95" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="G98" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="G99" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="G101" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F102" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="G102" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="G103" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="G104" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="G106" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="G107" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="G108" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="G109" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I109" s="27" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V1"/>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -4013,9 +5615,9 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:AE347"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -4025,20 +5627,23 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="D9:D10 B9:B10">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+  <conditionalFormatting sqref="B4:B5 B1 B110:B1048576">
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B13 B1 B35:B39 B42:B1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B41">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  <conditionalFormatting sqref="F2:F5 G4:G5">
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:F43 G42:G43">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:B41">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  <conditionalFormatting sqref="D13:D14 B13:B14">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17 B39:B108">
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4050,7 +5655,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4058,22 +5663,22 @@
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.875" style="26" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="26" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="26"/>
+    <col min="10" max="10" width="15.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4108,18 +5713,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25" t="s">
@@ -4132,18 +5737,18 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>82</v>
@@ -4158,18 +5763,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>82</v>
@@ -4178,18 +5783,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>82</v>
@@ -4201,18 +5806,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="29" t="s">
@@ -4227,18 +5832,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>275</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>276</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>82</v>
@@ -4250,18 +5855,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>82</v>
@@ -4272,14 +5877,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4291,48 +5896,48 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AA37"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.125" style="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.625" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.875" style="39" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.125" style="39" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="12.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.875" style="39" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="11" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -4417,36 +6022,33 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="N2" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="39" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="49" t="s">
         <v>101</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>360</v>
+        <v>148</v>
       </c>
       <c r="N3" s="39" t="s">
         <v>101</v>
@@ -4454,375 +6056,729 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>234</v>
+        <v>225</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>235</v>
+        <v>225</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>101</v>
+      <c r="D6" s="47" t="s">
+        <v>351</v>
       </c>
       <c r="P6" s="39" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>101</v>
+      <c r="D7" s="47" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>229</v>
+        <v>224</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>230</v>
+        <v>224</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>231</v>
+        <v>224</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>232</v>
+        <v>224</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>234</v>
+        <v>224</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="O16" s="39" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="O17" s="39" t="s">
-        <v>101</v>
+        <v>224</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>101</v>
+        <v>224</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>375</v>
+        <v>224</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="G22" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="P23" s="39" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D23" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="P24" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D24" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D25" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="P31" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="O26" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="P27" s="39" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="O30" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="P31" s="39" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="P32" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="O34" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D35" s="39" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K61" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="N61" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G62" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K62" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="N62" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="47" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>354</v>
+      <c r="O65" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="P66" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="P67" s="39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA1"/>
+  <sortState ref="A2:AA82">
+    <sortCondition ref="B2:B82"/>
+    <sortCondition ref="F2:F82"/>
+    <sortCondition ref="G2:G82"/>
+    <sortCondition ref="D2:D82"/>
+  </sortState>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA594"/>
-    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="130" filter="1" showAutoFilter="1" hiddenRows="1">
       <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4834,39 +6790,54 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AA594"/>
+    </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D4:D5">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D20">
+  <conditionalFormatting sqref="D6:D7">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D26">
+  <conditionalFormatting sqref="D6:D7">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
+  <conditionalFormatting sqref="D12:D13">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
+  <conditionalFormatting sqref="D10:D11">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D30">
+  <conditionalFormatting sqref="D10:D11">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D28">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D28">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="D30:D32">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D34">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="D35:D40">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D32">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="D41:D44">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D32">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D45:D67">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4875,23 +6846,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G42"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4919,10 +6890,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>115</v>
@@ -4930,10 +6901,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
         <v>116</v>
@@ -4941,10 +6912,10 @@
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="33"/>
       <c r="F4" s="25" t="s">
@@ -4953,10 +6924,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
         <v>173</v>
@@ -4964,10 +6935,10 @@
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" s="33"/>
       <c r="F6" s="25" t="s">
@@ -4976,34 +6947,34 @@
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D7" s="33"/>
       <c r="F7" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" s="33"/>
       <c r="F8" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9" s="33"/>
       <c r="F9" s="25" t="s">
@@ -5012,297 +6983,296 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" t="s">
         <v>306</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="F11" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" t="s">
         <v>308</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" t="s">
         <v>310</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D14" s="33"/>
       <c r="F14" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" s="33"/>
       <c r="F15" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D16" s="33"/>
       <c r="F16" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" s="33"/>
       <c r="F17" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D18" s="33"/>
       <c r="F18" s="25" t="s">
-        <v>182</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D19" s="33"/>
       <c r="F19" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D20" s="33"/>
       <c r="F20" s="25" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D21" s="33"/>
       <c r="F21" s="25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D22" s="33"/>
       <c r="F22" s="25" t="s">
-        <v>324</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D23" s="33"/>
       <c r="F23" s="25" t="s">
-        <v>113</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D24" s="33"/>
       <c r="F24" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D25" s="33"/>
       <c r="F25" s="25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D26" s="33"/>
       <c r="F26" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D27" s="33"/>
       <c r="F27" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D28" s="33"/>
       <c r="F28" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D29" s="33"/>
       <c r="F29" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="F30" s="25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="F30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="F31" t="s">
-        <v>342</v>
+        <v>275</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="F31" s="25" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D32" s="33"/>
       <c r="F32" s="25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D33" s="33"/>
       <c r="F33" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>288</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="F34" s="25" t="s">
-        <v>180</v>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -5310,10 +7280,10 @@
         <v>289</v>
       </c>
       <c r="C35" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -5321,10 +7291,10 @@
         <v>290</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -5332,10 +7302,10 @@
         <v>291</v>
       </c>
       <c r="C37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -5343,54 +7313,43 @@
         <v>292</v>
       </c>
       <c r="C38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" t="s">
         <v>293</v>
       </c>
-      <c r="C39" t="s">
-        <v>294</v>
-      </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
         <v>295</v>
-      </c>
-      <c r="C42" t="s">
-        <v>294</v>
-      </c>
-      <c r="F42" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5399,12 +7358,12 @@
     <sortCondition ref="B2:B41"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5417,7 +7376,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5425,23 +7384,23 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -5484,10 +7443,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K2" t="s">
         <v>156</v>
@@ -5513,12 +7472,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5541,6 +7500,65 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -5718,65 +7736,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
   <ds:schemaRefs>
@@ -5795,6 +7754,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CAC4C16-FDF5-437E-A8C4-D650CA39502E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5811,20 +7786,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\git\Beiersdorf\seeddata-bsdf\99-exceldmd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilbhatia/github/Beiersdorf/seeddata-bsdf/99-exceldmd/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="23540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_Attribute_Display_Types">'[1]20170320 065838_DataModel_Templ'!#REF!</definedName>
     <definedName name="_Attribute_Name">'[1]S7 - Attribute'!$E$2:$E$1048576</definedName>
     <definedName name="_Boolean">'[1]20170320 065838_DataModel_Templ'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ATTRIBUTES!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ATTRIBUTES!$A$1:$V$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E-A-R-C MODEL'!$A$1:$AA$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ENTITIES!$A$1:$D$1</definedName>
     <definedName name="_RefDataAttribute">ATTRIBUTES!#REF!</definedName>
@@ -46,8 +46,8 @@
   </definedNames>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
-    <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -67,7 +67,7 @@
     <author>Eric Sambach</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0">
+    <comment ref="B6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="517">
   <si>
     <t>ACTION</t>
   </si>
@@ -1706,12 +1706,24 @@
   </si>
   <si>
     <t>sspgrproduct</t>
+  </si>
+  <si>
+    <t>NestedGrid</t>
+  </si>
+  <si>
+    <t>alastmodifieddate</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Last Modified Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -2041,11 +2053,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="18"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="18" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -2069,27 +2081,7 @@
     <cellStyle name="Neutral" xfId="18" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2624,7 +2616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C34"/>
@@ -2633,84 +2625,84 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="87.625" customWidth="1"/>
+    <col min="3" max="3" width="87.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="46"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="48"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="48"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="48"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
@@ -2879,12 +2871,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
+      <selection activeCell="B34" sqref="B34"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
       <selection activeCell="A5" sqref="A5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
-      <selection activeCell="B34" sqref="B34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -2905,7 +2897,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
+  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2913,17 +2905,17 @@
       <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3111,12 +3103,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3129,20 +3121,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A4:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3291,11 +3283,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3313,12 +3305,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="32" customWidth="1"/>
     <col min="3" max="3" width="29" style="26" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="26" customWidth="1"/>
     <col min="5" max="16384" width="11" style="26"/>
   </cols>
   <sheetData>
@@ -3483,7 +3475,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3491,12 +3483,12 @@
       <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,14 +3531,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3557,43 +3549,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AG109"/>
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:AG110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="38.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="27" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="26.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="26.1640625" style="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.125" style="26"/>
+    <col min="21" max="21" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="7.1640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3661,7 +3653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
         <v>351</v>
       </c>
@@ -3687,7 +3679,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="44" t="s">
         <v>352</v>
       </c>
@@ -3710,7 +3702,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>353</v>
       </c>
@@ -3727,7 +3719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
         <v>354</v>
       </c>
@@ -3744,7 +3736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
         <v>366</v>
       </c>
@@ -3764,7 +3756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>368</v>
       </c>
@@ -3781,7 +3773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
         <v>370</v>
       </c>
@@ -3798,7 +3790,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
         <v>373</v>
       </c>
@@ -3815,7 +3807,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
         <v>375</v>
       </c>
@@ -3832,7 +3824,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
         <v>233</v>
       </c>
@@ -3858,7 +3850,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="25" t="s">
         <v>377</v>
       </c>
@@ -3875,7 +3867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
         <v>380</v>
       </c>
@@ -3892,7 +3884,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>382</v>
       </c>
@@ -3921,7 +3913,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
         <v>228</v>
       </c>
@@ -3938,7 +3930,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
         <v>261</v>
       </c>
@@ -3967,7 +3959,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
         <v>260</v>
       </c>
@@ -3996,7 +3988,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>258</v>
       </c>
@@ -4025,7 +4017,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
         <v>259</v>
       </c>
@@ -4054,7 +4046,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
         <v>226</v>
       </c>
@@ -4071,7 +4063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="26" t="s">
         <v>349</v>
       </c>
@@ -4088,7 +4080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="26" t="s">
         <v>234</v>
       </c>
@@ -4104,8 +4096,11 @@
       <c r="F22" s="26" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
         <v>236</v>
       </c>
@@ -4128,7 +4123,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="26" t="s">
         <v>235</v>
       </c>
@@ -4145,7 +4140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
         <v>229</v>
       </c>
@@ -4162,7 +4157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
         <v>230</v>
       </c>
@@ -4179,7 +4174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
         <v>302</v>
       </c>
@@ -4205,7 +4200,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="26" t="s">
         <v>385</v>
       </c>
@@ -4222,7 +4217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
         <v>387</v>
       </c>
@@ -4239,7 +4234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="26" t="s">
         <v>389</v>
       </c>
@@ -4256,7 +4251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="26" t="s">
         <v>391</v>
       </c>
@@ -4273,7 +4268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="26" t="s">
         <v>393</v>
       </c>
@@ -4290,7 +4285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="25" t="s">
         <v>395</v>
       </c>
@@ -4307,7 +4302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="25" t="s">
         <v>397</v>
       </c>
@@ -4324,7 +4319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="25" t="s">
         <v>399</v>
       </c>
@@ -4341,7 +4336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="25" t="s">
         <v>401</v>
       </c>
@@ -4358,7 +4353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="25" t="s">
         <v>403</v>
       </c>
@@ -4375,7 +4370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="25" t="s">
         <v>405</v>
       </c>
@@ -4392,7 +4387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>408</v>
       </c>
@@ -4409,7 +4404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>410</v>
       </c>
@@ -4426,7 +4421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="25" t="s">
         <v>412</v>
       </c>
@@ -4443,7 +4438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="25" t="s">
         <v>414</v>
       </c>
@@ -4460,7 +4455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="25" t="s">
         <v>416</v>
       </c>
@@ -4477,7 +4472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="26" t="s">
         <v>227</v>
       </c>
@@ -4494,7 +4489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="25" t="s">
         <v>418</v>
       </c>
@@ -4511,7 +4506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="25" t="s">
         <v>420</v>
       </c>
@@ -4528,7 +4523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="25" t="s">
         <v>422</v>
       </c>
@@ -4545,7 +4540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="25" t="s">
         <v>424</v>
       </c>
@@ -4562,7 +4557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="25" t="s">
         <v>426</v>
       </c>
@@ -4579,7 +4574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="25" t="s">
         <v>428</v>
       </c>
@@ -4596,7 +4591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="25" t="s">
         <v>430</v>
       </c>
@@ -4613,7 +4608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="25" t="s">
         <v>432</v>
       </c>
@@ -4630,7 +4625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="26" t="s">
         <v>434</v>
       </c>
@@ -4647,7 +4642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="26" t="s">
         <v>436</v>
       </c>
@@ -4664,7 +4659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="26" t="s">
         <v>237</v>
       </c>
@@ -4680,8 +4675,11 @@
       <c r="F55" s="26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="26" t="s">
         <v>238</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="26" t="s">
         <v>239</v>
       </c>
@@ -4715,7 +4713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="26" t="s">
         <v>240</v>
       </c>
@@ -4732,7 +4730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="26" t="s">
         <v>241</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="26" t="s">
         <v>242</v>
       </c>
@@ -4766,7 +4764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="26" t="s">
         <v>243</v>
       </c>
@@ -4783,7 +4781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="26" t="s">
         <v>244</v>
       </c>
@@ -4800,7 +4798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="26" t="s">
         <v>245</v>
       </c>
@@ -4817,7 +4815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="26" t="s">
         <v>246</v>
       </c>
@@ -4834,7 +4832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="26" t="s">
         <v>247</v>
       </c>
@@ -4851,7 +4849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="26" t="s">
         <v>248</v>
       </c>
@@ -4868,7 +4866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="26" t="s">
         <v>250</v>
       </c>
@@ -4885,7 +4883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="26" t="s">
         <v>249</v>
       </c>
@@ -4902,7 +4900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="26" t="s">
         <v>251</v>
       </c>
@@ -4919,7 +4917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="26" t="s">
         <v>252</v>
       </c>
@@ -4936,7 +4934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="26" t="s">
         <v>253</v>
       </c>
@@ -4953,7 +4951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="26" t="s">
         <v>254</v>
       </c>
@@ -4970,7 +4968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="26" t="s">
         <v>255</v>
       </c>
@@ -4987,7 +4985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="26" t="s">
         <v>256</v>
       </c>
@@ -5004,7 +5002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="26" t="s">
         <v>257</v>
       </c>
@@ -5021,7 +5019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="25" t="s">
         <v>438</v>
       </c>
@@ -5038,7 +5036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="25" t="s">
         <v>440</v>
       </c>
@@ -5055,7 +5053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="25" t="s">
         <v>442</v>
       </c>
@@ -5072,7 +5070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="25" t="s">
         <v>444</v>
       </c>
@@ -5089,7 +5087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="25" t="s">
         <v>446</v>
       </c>
@@ -5106,7 +5104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="25" t="s">
         <v>448</v>
       </c>
@@ -5123,7 +5121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="25" t="s">
         <v>450</v>
       </c>
@@ -5140,7 +5138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="25" t="s">
         <v>452</v>
       </c>
@@ -5157,7 +5155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="25" t="s">
         <v>454</v>
       </c>
@@ -5174,7 +5172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="25" t="s">
         <v>231</v>
       </c>
@@ -5191,7 +5189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="25" t="s">
         <v>455</v>
       </c>
@@ -5208,7 +5206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="25" t="s">
         <v>457</v>
       </c>
@@ -5225,7 +5223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="25" t="s">
         <v>459</v>
       </c>
@@ -5242,7 +5240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="25" t="s">
         <v>461</v>
       </c>
@@ -5259,7 +5257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="25" t="s">
         <v>463</v>
       </c>
@@ -5276,7 +5274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="25" t="s">
         <v>465</v>
       </c>
@@ -5293,7 +5291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="25" t="s">
         <v>467</v>
       </c>
@@ -5310,7 +5308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="25" t="s">
         <v>468</v>
       </c>
@@ -5327,7 +5325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="25" t="s">
         <v>470</v>
       </c>
@@ -5344,7 +5342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="25" t="s">
         <v>472</v>
       </c>
@@ -5361,7 +5359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="25" t="s">
         <v>474</v>
       </c>
@@ -5378,7 +5376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="25" t="s">
         <v>476</v>
       </c>
@@ -5395,7 +5393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="25" t="s">
         <v>478</v>
       </c>
@@ -5412,7 +5410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" s="25" t="s">
         <v>480</v>
       </c>
@@ -5429,7 +5427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="26" t="s">
         <v>482</v>
       </c>
@@ -5445,8 +5443,11 @@
       <c r="F100" s="26" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G100" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="26" t="s">
         <v>484</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="26" t="s">
         <v>486</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="26" t="s">
         <v>488</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" s="26" t="s">
         <v>490</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="26" t="s">
         <v>492</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" s="26" t="s">
         <v>494</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="26" t="s">
         <v>496</v>
       </c>
@@ -5565,7 +5566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" s="26" t="s">
         <v>498</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" s="39" t="s">
         <v>500</v>
       </c>
@@ -5602,12 +5603,29 @@
         <v>502</v>
       </c>
     </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="G110" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V1"/>
+  <autoFilter ref="A1:V109"/>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -5615,9 +5633,9 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:AE347"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -5628,22 +5646,22 @@
   </customSheetViews>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B4:B5 B1 B110:B1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 G4:G5">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14 B13:B14">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B17 B39:B108">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5655,7 +5673,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5663,22 +5681,22 @@
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" style="26" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="26" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="26"/>
+    <col min="10" max="10" width="15.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5713,7 +5731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>268</v>
       </c>
@@ -5737,7 +5755,7 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
     </row>
-    <row r="3" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>269</v>
       </c>
@@ -5763,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>270</v>
       </c>
@@ -5783,7 +5801,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>271</v>
       </c>
@@ -5806,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>271</v>
       </c>
@@ -5832,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>272</v>
       </c>
@@ -5855,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="26" t="s">
         <v>273</v>
       </c>
@@ -5877,14 +5895,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -5896,48 +5914,48 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AA82"/>
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" style="39" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" style="39" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="12.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.83203125" style="39" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="11" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -6020,14 +6038,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B2" s="39" t="s">
         <v>225</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="47" t="s">
         <v>101</v>
       </c>
       <c r="K2" s="39" t="s">
@@ -6037,14 +6055,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="39" t="s">
         <v>225</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="47" t="s">
         <v>101</v>
       </c>
       <c r="K3" s="39" t="s">
@@ -6054,55 +6072,55 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="45" t="s">
         <v>354</v>
       </c>
       <c r="O4" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="46" t="s">
         <v>352</v>
       </c>
       <c r="P5" s="25" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>351</v>
       </c>
       <c r="P6" s="39" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="45" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="47" t="s">
         <v>101</v>
       </c>
       <c r="K8" s="39" t="s">
@@ -6112,14 +6130,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="47" t="s">
         <v>101</v>
       </c>
       <c r="K9" s="39" t="s">
@@ -6129,7 +6147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="39" t="s">
         <v>224</v>
       </c>
@@ -6137,7 +6155,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
         <v>224</v>
       </c>
@@ -6145,7 +6163,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
         <v>224</v>
       </c>
@@ -6153,7 +6171,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" s="39" t="s">
         <v>224</v>
       </c>
@@ -6161,7 +6179,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" s="39" t="s">
         <v>224</v>
       </c>
@@ -6169,7 +6187,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
         <v>224</v>
       </c>
@@ -6177,7 +6195,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
         <v>224</v>
       </c>
@@ -6185,7 +6203,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
         <v>224</v>
       </c>
@@ -6193,7 +6211,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>224</v>
       </c>
@@ -6201,7 +6219,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
         <v>224</v>
       </c>
@@ -6209,7 +6227,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="39" t="s">
         <v>224</v>
       </c>
@@ -6220,7 +6238,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
         <v>224</v>
       </c>
@@ -6231,7 +6249,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="39" t="s">
         <v>224</v>
       </c>
@@ -6245,7 +6263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="39" t="s">
         <v>224</v>
       </c>
@@ -6259,7 +6277,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="39" t="s">
         <v>224</v>
       </c>
@@ -6270,18 +6288,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="45" t="s">
         <v>354</v>
       </c>
       <c r="O25" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="39" t="s">
         <v>224</v>
       </c>
@@ -6289,7 +6307,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="39" t="s">
         <v>224</v>
       </c>
@@ -6297,7 +6315,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="39" t="s">
         <v>224</v>
       </c>
@@ -6305,7 +6323,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="39" t="s">
         <v>224</v>
       </c>
@@ -6313,7 +6331,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="39" t="s">
         <v>224</v>
       </c>
@@ -6321,37 +6339,37 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="46" t="s">
         <v>352</v>
       </c>
       <c r="P31" s="25" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="45" t="s">
         <v>351</v>
       </c>
       <c r="P32" s="39" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="45" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="39" t="s">
         <v>224</v>
       </c>
@@ -6359,7 +6377,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="39" t="s">
         <v>224</v>
       </c>
@@ -6367,7 +6385,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="39" t="s">
         <v>224</v>
       </c>
@@ -6375,7 +6393,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="39" t="s">
         <v>224</v>
       </c>
@@ -6383,7 +6401,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="39" t="s">
         <v>224</v>
       </c>
@@ -6391,7 +6409,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="39" t="s">
         <v>224</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="39" t="s">
         <v>224</v>
       </c>
@@ -6407,7 +6425,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="39" t="s">
         <v>224</v>
       </c>
@@ -6415,7 +6433,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="39" t="s">
         <v>224</v>
       </c>
@@ -6423,7 +6441,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="39" t="s">
         <v>224</v>
       </c>
@@ -6431,7 +6449,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="39" t="s">
         <v>224</v>
       </c>
@@ -6439,7 +6457,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="39" t="s">
         <v>224</v>
       </c>
@@ -6447,7 +6465,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="39" t="s">
         <v>224</v>
       </c>
@@ -6455,7 +6473,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="39" t="s">
         <v>224</v>
       </c>
@@ -6463,7 +6481,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="39" t="s">
         <v>224</v>
       </c>
@@ -6471,7 +6489,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="39" t="s">
         <v>224</v>
       </c>
@@ -6479,7 +6497,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="39" t="s">
         <v>224</v>
       </c>
@@ -6487,7 +6505,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="39" t="s">
         <v>224</v>
       </c>
@@ -6495,7 +6513,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="39" t="s">
         <v>224</v>
       </c>
@@ -6503,7 +6521,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="39" t="s">
         <v>224</v>
       </c>
@@ -6511,7 +6529,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="39" t="s">
         <v>224</v>
       </c>
@@ -6519,7 +6537,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>224</v>
       </c>
@@ -6527,7 +6545,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="39" t="s">
         <v>224</v>
       </c>
@@ -6535,7 +6553,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="39" t="s">
         <v>224</v>
       </c>
@@ -6543,7 +6561,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="39" t="s">
         <v>224</v>
       </c>
@@ -6551,7 +6569,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="39" t="s">
         <v>224</v>
       </c>
@@ -6559,7 +6577,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="39" t="s">
         <v>224</v>
       </c>
@@ -6567,14 +6585,14 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" s="47" t="s">
         <v>101</v>
       </c>
       <c r="K61" s="39" t="s">
@@ -6584,14 +6602,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="G62" s="49" t="s">
+      <c r="G62" s="47" t="s">
         <v>101</v>
       </c>
       <c r="K62" s="39" t="s">
@@ -6601,7 +6619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="39" t="s">
         <v>223</v>
       </c>
@@ -6609,7 +6627,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="39" t="s">
         <v>223</v>
       </c>
@@ -6617,48 +6635,48 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="45" t="s">
         <v>354</v>
       </c>
       <c r="O65" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="48" t="s">
+      <c r="D66" s="46" t="s">
         <v>352</v>
       </c>
       <c r="P66" s="25" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D67" s="47" t="s">
+      <c r="D67" s="45" t="s">
         <v>351</v>
       </c>
       <c r="P67" s="39" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D68" s="47" t="s">
+      <c r="D68" s="45" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" s="39" t="s">
         <v>223</v>
       </c>
@@ -6666,7 +6684,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="39" t="s">
         <v>223</v>
       </c>
@@ -6674,7 +6692,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B71" s="39" t="s">
         <v>223</v>
       </c>
@@ -6682,7 +6700,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72" s="39" t="s">
         <v>223</v>
       </c>
@@ -6690,7 +6708,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73" s="39" t="s">
         <v>223</v>
       </c>
@@ -6698,7 +6716,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B74" s="39" t="s">
         <v>223</v>
       </c>
@@ -6706,7 +6724,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" s="39" t="s">
         <v>223</v>
       </c>
@@ -6714,7 +6732,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" s="39" t="s">
         <v>223</v>
       </c>
@@ -6722,7 +6740,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B77" s="39" t="s">
         <v>223</v>
       </c>
@@ -6730,7 +6748,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" s="39" t="s">
         <v>223</v>
       </c>
@@ -6738,7 +6756,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="39" t="s">
         <v>223</v>
       </c>
@@ -6746,7 +6764,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" s="39" t="s">
         <v>223</v>
       </c>
@@ -6754,7 +6772,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="39" t="s">
         <v>223</v>
       </c>
@@ -6762,12 +6780,36 @@
         <v>511</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="39" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -6779,6 +6821,12 @@
     <sortCondition ref="D2:D82"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AA594"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="130" filter="1" showAutoFilter="1" hiddenRows="1">
       <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6789,12 +6837,6 @@
           </filters>
         </filterColumn>
       </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA594"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="D4:D5">
@@ -6846,7 +6888,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6854,15 +6896,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7358,12 +7400,12 @@
     <sortCondition ref="B2:B41"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7376,7 +7418,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
+  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7384,23 +7426,23 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -7472,12 +7514,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilbhatia/github/Beiersdorf/seeddata-bsdf/99-exceldmd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\git\Beiersdorf\seeddata-bsdf\99-exceldmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="23540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -46,8 +46,8 @@
   </definedNames>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
     <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -67,7 +67,7 @@
     <author>Eric Sambach</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1">
+    <comment ref="B6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="515">
   <si>
     <t>ACTION</t>
   </si>
@@ -868,9 +868,6 @@
     <t>aentitytype</t>
   </si>
   <si>
-    <t>acritical</t>
-  </si>
-  <si>
     <t>ainci</t>
   </si>
   <si>
@@ -1007,9 +1004,6 @@
   </si>
   <si>
     <t>camazon</t>
-  </si>
-  <si>
-    <t>aInci</t>
   </si>
   <si>
     <t>cbrandbank</t>
@@ -1723,7 +1717,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -2616,7 +2610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C34"/>
@@ -2625,11 +2619,11 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="87.6640625" customWidth="1"/>
+    <col min="3" max="3" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,7 +2772,7 @@
         <v>159</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2805,13 +2799,13 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>160</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2871,12 +2865,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
+      <selection activeCell="A5" sqref="A5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
       <selection activeCell="B34" sqref="B34"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
-      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -2897,7 +2891,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2905,17 +2899,17 @@
       <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2952,7 +2946,7 @@
         <v>224</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>101</v>
@@ -2966,7 +2960,7 @@
         <v>224</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>101</v>
@@ -2980,7 +2974,7 @@
         <v>224</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>101</v>
@@ -2994,7 +2988,7 @@
         <v>224</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>101</v>
@@ -3008,7 +3002,7 @@
         <v>224</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>101</v>
@@ -3022,7 +3016,7 @@
         <v>224</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>101</v>
@@ -3036,7 +3030,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>101</v>
@@ -3050,7 +3044,7 @@
         <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>101</v>
@@ -3064,7 +3058,7 @@
         <v>224</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>101</v>
@@ -3078,7 +3072,7 @@
         <v>223</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>101</v>
@@ -3092,7 +3086,7 @@
         <v>224</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>101</v>
@@ -3103,12 +3097,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3121,20 +3115,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3283,11 +3277,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3302,19 +3296,19 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
     <col min="3" max="3" width="29" style="26" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="26" customWidth="1"/>
     <col min="5" max="16384" width="11" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3475,7 +3469,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,12 +3477,12 @@
       <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3531,14 +3525,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3549,43 +3543,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AG110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="38.875" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="27" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.1640625" style="26" customWidth="1"/>
-    <col min="12" max="12" width="26.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="26.125" style="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.875" style="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.125" style="26" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.1640625" style="26"/>
+    <col min="21" max="21" width="17.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="7.125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3653,9 +3647,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>33</v>
@@ -3664,81 +3658,81 @@
         <v>103</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>87</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>86</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG3" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="AG3" s="25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>143</v>
@@ -3747,7 +3741,7 @@
         <v>102</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>32</v>
@@ -3756,9 +3750,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>144</v>
@@ -3767,15 +3761,15 @@
         <v>102</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>31</v>
@@ -3784,15 +3778,15 @@
         <v>102</v>
       </c>
       <c r="F8" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
         <v>371</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B9" s="26" t="s">
-        <v>373</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>175</v>
@@ -3801,15 +3795,15 @@
         <v>102</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>175</v>
@@ -3818,15 +3812,15 @@
         <v>102</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>233</v>
+        <v>502</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>33</v>
@@ -3841,35 +3835,35 @@
         <v>87</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>176</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>31</v>
@@ -3878,15 +3872,15 @@
         <v>102</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>33</v>
@@ -3895,25 +3889,25 @@
         <v>102</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>228</v>
       </c>
@@ -3930,9 +3924,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>33</v>
@@ -3947,21 +3941,21 @@
         <v>87</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>33</v>
@@ -3976,21 +3970,21 @@
         <v>87</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J17" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>33</v>
@@ -4005,21 +3999,21 @@
         <v>87</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>33</v>
@@ -4034,19 +4028,19 @@
         <v>87</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>226</v>
       </c>
@@ -4063,9 +4057,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>31</v>
@@ -4074,15 +4068,15 @@
         <v>103</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>100</v>
@@ -4097,18 +4091,18 @@
         <v>104</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>119</v>
@@ -4117,21 +4111,21 @@
         <v>87</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J23" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>118</v>
@@ -4140,7 +4134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
         <v>229</v>
       </c>
@@ -4157,7 +4151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
         <v>230</v>
       </c>
@@ -4174,9 +4168,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>33</v>
@@ -4185,24 +4179,24 @@
         <v>103</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>31</v>
@@ -4211,15 +4205,15 @@
         <v>176</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>144</v>
@@ -4228,15 +4222,15 @@
         <v>102</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>31</v>
@@ -4245,15 +4239,15 @@
         <v>102</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>31</v>
@@ -4262,15 +4256,15 @@
         <v>102</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>144</v>
@@ -4279,15 +4273,15 @@
         <v>102</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>31</v>
@@ -4296,15 +4290,15 @@
         <v>176</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>31</v>
@@ -4313,15 +4307,15 @@
         <v>176</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>31</v>
@@ -4330,15 +4324,15 @@
         <v>176</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>31</v>
@@ -4347,15 +4341,15 @@
         <v>176</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>31</v>
@@ -4364,120 +4358,120 @@
         <v>176</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="25" t="s">
         <v>406</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="25" t="s">
-        <v>408</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="26" t="s">
         <v>227</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>103</v>
@@ -4489,145 +4483,145 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>31</v>
@@ -4636,15 +4630,15 @@
         <v>103</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>31</v>
@@ -4653,15 +4647,15 @@
         <v>103</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>100</v>
@@ -4676,18 +4670,18 @@
         <v>105</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F56" s="26" t="s">
         <v>126</v>
@@ -4696,15 +4690,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>143</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>123</v>
@@ -4713,15 +4707,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F58" s="26" t="s">
         <v>124</v>
@@ -4730,15 +4724,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F59" s="26" t="s">
         <v>125</v>
@@ -4747,15 +4741,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>143</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F60" s="26" t="s">
         <v>127</v>
@@ -4764,15 +4758,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>143</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F61" s="26" t="s">
         <v>128</v>
@@ -4781,15 +4775,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F62" s="26" t="s">
         <v>132</v>
@@ -4798,15 +4792,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F63" s="26" t="s">
         <v>137</v>
@@ -4815,15 +4809,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F64" s="26" t="s">
         <v>138</v>
@@ -4832,15 +4826,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F65" s="26" t="s">
         <v>139</v>
@@ -4849,15 +4843,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F66" s="26" t="s">
         <v>140</v>
@@ -4866,15 +4860,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F67" s="26" t="s">
         <v>142</v>
@@ -4883,15 +4877,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F68" s="26" t="s">
         <v>141</v>
@@ -4900,15 +4894,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>143</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F69" s="26" t="s">
         <v>129</v>
@@ -4917,15 +4911,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>143</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F70" s="26" t="s">
         <v>133</v>
@@ -4934,15 +4928,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F71" s="26" t="s">
         <v>134</v>
@@ -4951,15 +4945,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F72" s="26" t="s">
         <v>135</v>
@@ -4968,15 +4962,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F73" s="26" t="s">
         <v>136</v>
@@ -4985,15 +4979,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>143</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F74" s="26" t="s">
         <v>130</v>
@@ -5002,15 +4996,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>143</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F75" s="26" t="s">
         <v>131</v>
@@ -5019,151 +5013,151 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G79" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G80" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G81" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G82" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G83" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>98</v>
@@ -5172,7 +5166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="25" t="s">
         <v>231</v>
       </c>
@@ -5189,117 +5183,117 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G86" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G87" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G88" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G89" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="25" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G90" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G91" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>99</v>
@@ -5308,128 +5302,128 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="25" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G93" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G94" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G95" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G96" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G97" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G98" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G99" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>100</v>
@@ -5441,151 +5435,151 @@
         <v>103</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="26" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G101" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G102" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G103" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="26" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G104" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="26" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G105" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="26" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G106" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="26" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G107" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="26" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G108" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="39" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>33</v>
@@ -5594,38 +5588,38 @@
         <v>102</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G109" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="F110" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="E110" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>516</v>
-      </c>
       <c r="G110" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V109"/>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -5633,9 +5627,9 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:AE347"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -5673,30 +5667,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.875" style="26" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="26" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="26"/>
+    <col min="10" max="10" width="15.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5731,9 +5725,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>81</v>
@@ -5755,9 +5749,9 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>81</v>
@@ -5781,9 +5775,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>35</v>
@@ -5801,9 +5795,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>35</v>
@@ -5824,9 +5818,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>35</v>
@@ -5850,18 +5844,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>274</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>275</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>82</v>
@@ -5873,9 +5867,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>35</v>
@@ -5895,14 +5889,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -5914,48 +5908,48 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AA85"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.125" style="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.625" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.875" style="39" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.125" style="39" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="12.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.875" style="39" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="11" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -6038,7 +6032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
         <v>225</v>
       </c>
@@ -6055,12 +6049,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
         <v>225</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>101</v>
@@ -6072,48 +6066,48 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
         <v>225</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O4" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>225</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>225</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P6" s="39" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>225</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>224</v>
       </c>
@@ -6130,12 +6124,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>101</v>
@@ -6147,55 +6141,55 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
         <v>224</v>
       </c>
@@ -6203,23 +6197,23 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
         <v>224</v>
       </c>
@@ -6227,79 +6221,79 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O22" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O23" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="O24" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O25" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
         <v>224</v>
       </c>
@@ -6307,7 +6301,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
         <v>224</v>
       </c>
@@ -6315,61 +6309,61 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P32" s="39" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="39" t="s">
         <v>224</v>
       </c>
@@ -6377,95 +6371,95 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="39" t="s">
         <v>224</v>
       </c>
@@ -6473,119 +6467,119 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="39" t="s">
         <v>223</v>
       </c>
@@ -6602,12 +6596,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G62" s="47" t="s">
         <v>101</v>
@@ -6619,7 +6613,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="39" t="s">
         <v>223</v>
       </c>
@@ -6627,64 +6621,64 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D64" s="39" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D64" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D65" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="O65" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D65" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="P65" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="P66" s="25" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D66" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="P66" s="39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D67" s="45" t="s">
         <v>351</v>
       </c>
-      <c r="P67" s="39" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D68" s="45" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D68" s="39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D69" s="39" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="39" t="s">
         <v>223</v>
       </c>
@@ -6692,55 +6686,55 @@
         <v>410</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D71" s="39" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D73" s="39" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="39" t="s">
         <v>223</v>
       </c>
@@ -6748,68 +6742,60 @@
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D79" s="39" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D80" s="39" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D83" s="39" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D84" s="39" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D85" s="39" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -6821,12 +6807,6 @@
     <sortCondition ref="D2:D82"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA594"/>
-    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="130" filter="1" showAutoFilter="1" hiddenRows="1">
       <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6837,6 +6817,12 @@
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AA594"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="D4:D5">
@@ -6878,8 +6864,8 @@
   <conditionalFormatting sqref="D41:D44">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D67">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="D45:D66">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6888,23 +6874,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6932,10 +6918,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
         <v>115</v>
@@ -6943,10 +6929,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
         <v>116</v>
@@ -6954,10 +6940,10 @@
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="33"/>
       <c r="F4" s="25" t="s">
@@ -6966,10 +6952,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
         <v>173</v>
@@ -6977,10 +6963,10 @@
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" s="33"/>
       <c r="F6" s="25" t="s">
@@ -6989,22 +6975,22 @@
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="33"/>
       <c r="F7" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="33"/>
       <c r="F8" s="25" t="s">
@@ -7013,10 +6999,10 @@
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="33"/>
       <c r="F9" s="25" t="s">
@@ -7025,10 +7011,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F10" t="s">
         <v>207</v>
@@ -7036,139 +7022,139 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" s="33"/>
       <c r="F14" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15" s="33"/>
       <c r="F15" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" s="33"/>
       <c r="F16" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" s="33"/>
       <c r="F17" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18" s="33"/>
       <c r="F18" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="33"/>
       <c r="F19" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D20" s="33"/>
       <c r="F20" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21" s="33"/>
       <c r="F21" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D22" s="33"/>
       <c r="F22" s="25" t="s">
@@ -7177,129 +7163,129 @@
     </row>
     <row r="23" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D23" s="33"/>
       <c r="F23" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D24" s="33"/>
       <c r="F24" s="25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D25" s="33"/>
       <c r="F25" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D26" s="33"/>
       <c r="F26" s="25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D27" s="33"/>
       <c r="F27" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D28" s="33"/>
       <c r="F28" s="25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29" s="33"/>
       <c r="F29" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D31" s="33"/>
       <c r="F31" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" s="33"/>
       <c r="F32" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D33" s="33"/>
       <c r="F33" s="25" t="s">
@@ -7308,10 +7294,10 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F34" t="s">
         <v>114</v>
@@ -7319,10 +7305,10 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F35" t="s">
         <v>146</v>
@@ -7330,10 +7316,10 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F36" t="s">
         <v>145</v>
@@ -7341,10 +7327,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" t="s">
         <v>291</v>
-      </c>
-      <c r="C37" t="s">
-        <v>293</v>
       </c>
       <c r="F37" t="s">
         <v>147</v>
@@ -7352,10 +7338,10 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F38" t="s">
         <v>98</v>
@@ -7363,35 +7349,35 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C41" t="s">
+        <v>291</v>
+      </c>
+      <c r="F41" t="s">
         <v>293</v>
-      </c>
-      <c r="F41" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -7400,12 +7386,12 @@
     <sortCondition ref="B2:B41"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7418,7 +7404,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7426,23 +7412,23 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -7485,10 +7471,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K2" t="s">
         <v>156</v>
@@ -7514,12 +7500,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7542,65 +7528,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -7778,6 +7705,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
   <ds:schemaRefs>
@@ -7796,22 +7782,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CAC4C16-FDF5-437E-A8C4-D650CA39502E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7828,4 +7798,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_Attribute_Display_Types">'[1]20170320 065838_DataModel_Templ'!#REF!</definedName>
     <definedName name="_Attribute_Name">'[1]S7 - Attribute'!$E$2:$E$1048576</definedName>
     <definedName name="_Boolean">'[1]20170320 065838_DataModel_Templ'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ATTRIBUTES!$A$1:$V$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ATTRIBUTES!$A$1:$V$229</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E-A-R-C MODEL'!$A$1:$AA$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ENTITIES!$A$1:$D$1</definedName>
     <definedName name="_RefDataAttribute">ATTRIBUTES!#REF!</definedName>
@@ -46,8 +46,8 @@
   </definedNames>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
-    <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="753">
   <si>
     <t>ACTION</t>
   </si>
@@ -1712,6 +1712,720 @@
   </si>
   <si>
     <t>Last Modified Date</t>
+  </si>
+  <si>
+    <t>aactiveingredient_</t>
+  </si>
+  <si>
+    <t>aallergens</t>
+  </si>
+  <si>
+    <t>aassignedto</t>
+  </si>
+  <si>
+    <t>aattachments_</t>
+  </si>
+  <si>
+    <t>aawards_</t>
+  </si>
+  <si>
+    <t>abeautyritual</t>
+  </si>
+  <si>
+    <t>abodypart</t>
+  </si>
+  <si>
+    <t>acarecategory_</t>
+  </si>
+  <si>
+    <t>aclaimbenefit_</t>
+  </si>
+  <si>
+    <t>aconsumerneed</t>
+  </si>
+  <si>
+    <t>adeclarableadditives</t>
+  </si>
+  <si>
+    <t>adescriptionfunctionalname</t>
+  </si>
+  <si>
+    <t>aeutextilelabellingregulation</t>
+  </si>
+  <si>
+    <t>aexporttoalkemics</t>
+  </si>
+  <si>
+    <t>aexporttoberetail</t>
+  </si>
+  <si>
+    <t>afragrance_</t>
+  </si>
+  <si>
+    <t>aglobalexitdate</t>
+  </si>
+  <si>
+    <t>agloballaunchdate</t>
+  </si>
+  <si>
+    <t>aglobalrelaunchdate</t>
+  </si>
+  <si>
+    <t>aingredientlist</t>
+  </si>
+  <si>
+    <t>aispromotionarticle_</t>
+  </si>
+  <si>
+    <t>alocalexitdate</t>
+  </si>
+  <si>
+    <t>alocallaunchdate</t>
+  </si>
+  <si>
+    <t>alocalrelaunchdate</t>
+  </si>
+  <si>
+    <t>alongdescription</t>
+  </si>
+  <si>
+    <t>amarscampaignid</t>
+  </si>
+  <si>
+    <t>anartactive</t>
+  </si>
+  <si>
+    <t>anaturalcosmetics_</t>
+  </si>
+  <si>
+    <t>anominalnetcontentcustom_</t>
+  </si>
+  <si>
+    <t>anoningredients_</t>
+  </si>
+  <si>
+    <t>aphneutral_</t>
+  </si>
+  <si>
+    <t>aproductproperties</t>
+  </si>
+  <si>
+    <t>aregistrationnumber</t>
+  </si>
+  <si>
+    <t>aregulartoryclassification_</t>
+  </si>
+  <si>
+    <t>aretailerlisting_</t>
+  </si>
+  <si>
+    <t>aretailleaflettext</t>
+  </si>
+  <si>
+    <t>asapproductname</t>
+  </si>
+  <si>
+    <t>aseals_</t>
+  </si>
+  <si>
+    <t>aseasonalproduct_</t>
+  </si>
+  <si>
+    <t>asensitive_</t>
+  </si>
+  <si>
+    <t>ashortdescription</t>
+  </si>
+  <si>
+    <t>askintype_</t>
+  </si>
+  <si>
+    <t>aspecialingredients_</t>
+  </si>
+  <si>
+    <t>asuitableforbabys_</t>
+  </si>
+  <si>
+    <t>asuitableforkids_</t>
+  </si>
+  <si>
+    <t>asunprotectionfactor_</t>
+  </si>
+  <si>
+    <t>asynonyme</t>
+  </si>
+  <si>
+    <t>atexture_</t>
+  </si>
+  <si>
+    <t>ausageinstructions</t>
+  </si>
+  <si>
+    <t>avegan</t>
+  </si>
+  <si>
+    <t>awarningtext</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>ahairtype</t>
+  </si>
+  <si>
+    <t>Active Ingredient</t>
+  </si>
+  <si>
+    <t>NumericTextBox</t>
+  </si>
+  <si>
+    <t>Allergens</t>
+  </si>
+  <si>
+    <t>AssignedTo</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Awards</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t>Beauty Ritual</t>
+  </si>
+  <si>
+    <t>Body Part</t>
+  </si>
+  <si>
+    <t>Care Category</t>
+  </si>
+  <si>
+    <t>Claim/ Benefit</t>
+  </si>
+  <si>
+    <t>Insight</t>
+  </si>
+  <si>
+    <t>Declarable Additives</t>
+  </si>
+  <si>
+    <t>Description / Functional Name</t>
+  </si>
+  <si>
+    <t>EU Textile Labelling Regulation</t>
+  </si>
+  <si>
+    <t>Export to Alkemics</t>
+  </si>
+  <si>
+    <t>Export to BE retail</t>
+  </si>
+  <si>
+    <t>Fragrance</t>
+  </si>
+  <si>
+    <t>Global Exit Date</t>
+  </si>
+  <si>
+    <t>Global Launch Date</t>
+  </si>
+  <si>
+    <t>Global Relaunch Date</t>
+  </si>
+  <si>
+    <t>Hair Type</t>
+  </si>
+  <si>
+    <t>Ingredient List</t>
+  </si>
+  <si>
+    <t>Is Promotion Article</t>
+  </si>
+  <si>
+    <t>Local Exit Date</t>
+  </si>
+  <si>
+    <t>Local Launch Date</t>
+  </si>
+  <si>
+    <t>Local Relaunch Date</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>MARS Campaign ID</t>
+  </si>
+  <si>
+    <t>NART Active</t>
+  </si>
+  <si>
+    <t>Natural Cosmetics</t>
+  </si>
+  <si>
+    <t>Nominal Net Content Custom</t>
+  </si>
+  <si>
+    <t>Non Ingredients</t>
+  </si>
+  <si>
+    <t>pH-Neutral</t>
+  </si>
+  <si>
+    <t>Product properties</t>
+  </si>
+  <si>
+    <t>Registration Number</t>
+  </si>
+  <si>
+    <t>Regulatory Classification EEA</t>
+  </si>
+  <si>
+    <t>Retailer Listing</t>
+  </si>
+  <si>
+    <t>Retail Leaflet Text</t>
+  </si>
+  <si>
+    <t>SAP Product Name</t>
+  </si>
+  <si>
+    <t>Seals</t>
+  </si>
+  <si>
+    <t>Seasonal Product</t>
+  </si>
+  <si>
+    <t>Sensitive</t>
+  </si>
+  <si>
+    <t>Product Short Description</t>
+  </si>
+  <si>
+    <t>Skin Type</t>
+  </si>
+  <si>
+    <t>Special Ingredients</t>
+  </si>
+  <si>
+    <t>Suitable for Babys</t>
+  </si>
+  <si>
+    <t>Suitable For Kids</t>
+  </si>
+  <si>
+    <t>Sun Protection Factor</t>
+  </si>
+  <si>
+    <t>Synonyme</t>
+  </si>
+  <si>
+    <t>Texture</t>
+  </si>
+  <si>
+    <t>Usage Instructions</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Warning Text</t>
+  </si>
+  <si>
+    <t>dhairtype</t>
+  </si>
+  <si>
+    <t>abenefitfilter</t>
+  </si>
+  <si>
+    <t>Benefit Filter</t>
+  </si>
+  <si>
+    <t>ahowtousetext</t>
+  </si>
+  <si>
+    <t>How To Use Text</t>
+  </si>
+  <si>
+    <t>ahowtousevideo</t>
+  </si>
+  <si>
+    <t>How To Use Video</t>
+  </si>
+  <si>
+    <t>ahowtouseimage</t>
+  </si>
+  <si>
+    <t>How To Use Image</t>
+  </si>
+  <si>
+    <t>acontentcomparisonunit</t>
+  </si>
+  <si>
+    <t>Content Comparison Unit</t>
+  </si>
+  <si>
+    <t>aexclusiveflag</t>
+  </si>
+  <si>
+    <t>Exclusive Flag</t>
+  </si>
+  <si>
+    <t>agiftpricerange</t>
+  </si>
+  <si>
+    <t>Gift Price Range</t>
+  </si>
+  <si>
+    <t>agiftsforher</t>
+  </si>
+  <si>
+    <t>Gifts For Her</t>
+  </si>
+  <si>
+    <t>agiftsforhim</t>
+  </si>
+  <si>
+    <t>Gifts For Him</t>
+  </si>
+  <si>
+    <t>ahowtousedisplay</t>
+  </si>
+  <si>
+    <t>How To Use Display</t>
+  </si>
+  <si>
+    <t>aignoreproductpricepromotion</t>
+  </si>
+  <si>
+    <t>Ignore Product Price Promotion</t>
+  </si>
+  <si>
+    <t>amaximumorderquantity</t>
+  </si>
+  <si>
+    <t>Maximum Order Quantity</t>
+  </si>
+  <si>
+    <t>aminimumorderquantity</t>
+  </si>
+  <si>
+    <t>Minimum Order Quantity</t>
+  </si>
+  <si>
+    <t>anewinshopuntildate</t>
+  </si>
+  <si>
+    <t>New on Website Until Date</t>
+  </si>
+  <si>
+    <t>anonvisibleinshop</t>
+  </si>
+  <si>
+    <t>Non Visible In Shop</t>
+  </si>
+  <si>
+    <t>aonlineinstore</t>
+  </si>
+  <si>
+    <t>Online on Website</t>
+  </si>
+  <si>
+    <t>apackagingsize</t>
+  </si>
+  <si>
+    <t>Packaging Size</t>
+  </si>
+  <si>
+    <t>apackagingtype</t>
+  </si>
+  <si>
+    <t>Packaging Type</t>
+  </si>
+  <si>
+    <t>apersonalizable</t>
+  </si>
+  <si>
+    <t>Personalizable</t>
+  </si>
+  <si>
+    <t>aproductcategorycharacteristics</t>
+  </si>
+  <si>
+    <t>Product Category Characteristics</t>
+  </si>
+  <si>
+    <t>aratingreviewid</t>
+  </si>
+  <si>
+    <t>Rating Review ID</t>
+  </si>
+  <si>
+    <t>asalestext</t>
+  </si>
+  <si>
+    <t>Sales Text</t>
+  </si>
+  <si>
+    <t>asearchplacement</t>
+  </si>
+  <si>
+    <t>Search Placement</t>
+  </si>
+  <si>
+    <t>ashowinmenu</t>
+  </si>
+  <si>
+    <t>Show In Menu</t>
+  </si>
+  <si>
+    <t>ashowinshopsearch</t>
+  </si>
+  <si>
+    <t>Show in Website Search</t>
+  </si>
+  <si>
+    <t>astepquantity</t>
+  </si>
+  <si>
+    <t>Step Quantity</t>
+  </si>
+  <si>
+    <t>asubscription</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>ataxclass</t>
+  </si>
+  <si>
+    <t>Tax Class</t>
+  </si>
+  <si>
+    <t>adiscontinuedflag</t>
+  </si>
+  <si>
+    <t>Discontinued Flag</t>
+  </si>
+  <si>
+    <t>asitemapincludedflag</t>
+  </si>
+  <si>
+    <t>Sitemap Included Flag</t>
+  </si>
+  <si>
+    <t>asitemapchangefrequency</t>
+  </si>
+  <si>
+    <t>Sitemap Changefrequency</t>
+  </si>
+  <si>
+    <t>asitemappriority</t>
+  </si>
+  <si>
+    <t>Sitemap Priority</t>
+  </si>
+  <si>
+    <t>alocalonlinedatefrom</t>
+  </si>
+  <si>
+    <t>Local Online Date from</t>
+  </si>
+  <si>
+    <t>alocalonlinedateto</t>
+  </si>
+  <si>
+    <t>Local Online Date to</t>
+  </si>
+  <si>
+    <t>aseotexturl</t>
+  </si>
+  <si>
+    <t>SEO Text URL</t>
+  </si>
+  <si>
+    <t>ademandwareid</t>
+  </si>
+  <si>
+    <t>Demandware ID</t>
+  </si>
+  <si>
+    <t>amultiplegtinsuffix</t>
+  </si>
+  <si>
+    <t>Multiple GTIN Suffix</t>
+  </si>
+  <si>
+    <t>areleaseexport</t>
+  </si>
+  <si>
+    <t>Release Export</t>
+  </si>
+  <si>
+    <t>aselloption</t>
+  </si>
+  <si>
+    <t>Sell Option</t>
+  </si>
+  <si>
+    <t>anominalnetcontentunitlocal</t>
+  </si>
+  <si>
+    <t>Nominal Net Content Unit Local</t>
+  </si>
+  <si>
+    <t>anominalnetcontentadjustment</t>
+  </si>
+  <si>
+    <t>Nominal Net Content Adjustment</t>
+  </si>
+  <si>
+    <t>abenefitfilterranking</t>
+  </si>
+  <si>
+    <t>abenefitfiltertext</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>ahowtouseimageimagealttext</t>
+  </si>
+  <si>
+    <t>Image Alt Text</t>
+  </si>
+  <si>
+    <t>ahowtouseimageimageassetid</t>
+  </si>
+  <si>
+    <t>Image Asset ID</t>
+  </si>
+  <si>
+    <t>ahowtouseimageimagecategoryid</t>
+  </si>
+  <si>
+    <t>Image Category ID</t>
+  </si>
+  <si>
+    <t>ahowtouseimageimagemediacenterurl</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Image MediaCenter URL</t>
+  </si>
+  <si>
+    <t>ahowtouseimageimagesitecoreurl</t>
+  </si>
+  <si>
+    <t>Image Sitecore URL</t>
+  </si>
+  <si>
+    <t>ahowtouseimageimagethumbnail</t>
+  </si>
+  <si>
+    <t>ImageURL</t>
+  </si>
+  <si>
+    <t>Image Thumbnail</t>
+  </si>
+  <si>
+    <t>ahowtousevideopreviewimagealttext</t>
+  </si>
+  <si>
+    <t>Preview Image Alt Text</t>
+  </si>
+  <si>
+    <t>ahowtousevideopreviewimageassetid</t>
+  </si>
+  <si>
+    <t>Preview Image Asset ID</t>
+  </si>
+  <si>
+    <t>ahowtousevideopreviewimagecategoryid</t>
+  </si>
+  <si>
+    <t>Preview Image Category ID</t>
+  </si>
+  <si>
+    <t>ahowtousevideopreviewimagemediacenterurl</t>
+  </si>
+  <si>
+    <t>Preview Image MediaCenter URL</t>
+  </si>
+  <si>
+    <t>ahowtousevideopreviewimagesitecoreurl</t>
+  </si>
+  <si>
+    <t>Preview Image Sitecore URL</t>
+  </si>
+  <si>
+    <t>ahowtousevideopreviewimagethumbnail</t>
+  </si>
+  <si>
+    <t>Preview Image Thumbnail</t>
+  </si>
+  <si>
+    <t>ahowtouseimagestepno</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>ahowtousetextstepno</t>
+  </si>
+  <si>
+    <t>ahowtousevideostepno</t>
+  </si>
+  <si>
+    <t>ahowtouseimagetext</t>
+  </si>
+  <si>
+    <t>ahowtousetexttext</t>
+  </si>
+  <si>
+    <t>ahowtousetexttitle</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ahowtousevideotitle</t>
+  </si>
+  <si>
+    <t>ahowtousevideovideourl</t>
+  </si>
+  <si>
+    <t>Video URL</t>
+  </si>
+  <si>
+    <t>amerchandisingsize</t>
+  </si>
+  <si>
+    <t>Merchandising Size</t>
+  </si>
+  <si>
+    <t>arelatedrange</t>
+  </si>
+  <si>
+    <t>Related Range</t>
+  </si>
+  <si>
+    <t>ahairtypetype</t>
+  </si>
+  <si>
+    <t>ahairtyperank</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>dbenefitfilter</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +2705,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2052,6 +2766,7 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="19" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="18" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -2075,7 +2790,267 @@
     <cellStyle name="Neutral" xfId="18" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2865,12 +3840,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
+      <selection activeCell="B34" sqref="B34"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
       <selection activeCell="A5" sqref="A5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
-      <selection activeCell="B34" sqref="B34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3097,12 +4072,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3277,11 +4252,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3308,7 +4283,7 @@
     <col min="5" max="16384" width="11" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.100000000000001" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3525,14 +4500,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3543,14 +4518,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AG110"/>
+  <sheetPr codeName="Sheet4" filterMode="1"/>
+  <dimension ref="A1:AG229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
+      <selection pane="bottomRight" activeCell="B205" sqref="B6:B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3561,7 +4536,7 @@
     <col min="4" max="4" width="28.5" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.125" style="26" customWidth="1"/>
     <col min="6" max="6" width="38.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="27" customWidth="1"/>
     <col min="9" max="9" width="22.125" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.375" style="26" bestFit="1" customWidth="1"/>
@@ -3579,7 +4554,7 @@
     <col min="23" max="16384" width="7.125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3647,7 +4622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>349</v>
       </c>
@@ -3673,7 +4648,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
         <v>350</v>
       </c>
@@ -3696,7 +4671,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>351</v>
       </c>
@@ -3713,7 +4688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>352</v>
       </c>
@@ -3818,7 +4793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>502</v>
       </c>
@@ -3924,7 +4899,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>260</v>
       </c>
@@ -3953,7 +4928,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
         <v>259</v>
       </c>
@@ -3982,7 +4957,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>257</v>
       </c>
@@ -4011,7 +4986,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
         <v>258</v>
       </c>
@@ -4040,7 +5015,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>226</v>
       </c>
@@ -4057,7 +5032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>347</v>
       </c>
@@ -4094,7 +5069,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
         <v>235</v>
       </c>
@@ -4117,7 +5092,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
         <v>234</v>
       </c>
@@ -4168,7 +5143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
         <v>300</v>
       </c>
@@ -4364,7 +5339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="25" t="s">
         <v>403</v>
       </c>
@@ -4381,7 +5356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>406</v>
       </c>
@@ -4398,7 +5373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>408</v>
       </c>
@@ -4415,7 +5390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="25" t="s">
         <v>410</v>
       </c>
@@ -4432,7 +5407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="25" t="s">
         <v>412</v>
       </c>
@@ -4449,7 +5424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="25" t="s">
         <v>414</v>
       </c>
@@ -4466,7 +5441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="26" t="s">
         <v>227</v>
       </c>
@@ -4483,7 +5458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="25" t="s">
         <v>416</v>
       </c>
@@ -4500,7 +5475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="25" t="s">
         <v>418</v>
       </c>
@@ -4517,7 +5492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
         <v>420</v>
       </c>
@@ -4534,7 +5509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>422</v>
       </c>
@@ -4551,7 +5526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
         <v>424</v>
       </c>
@@ -4568,7 +5543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="25" t="s">
         <v>426</v>
       </c>
@@ -4585,7 +5560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
         <v>428</v>
       </c>
@@ -4602,7 +5577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
         <v>430</v>
       </c>
@@ -4619,7 +5594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="26" t="s">
         <v>432</v>
       </c>
@@ -4636,7 +5611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="26" t="s">
         <v>434</v>
       </c>
@@ -4653,7 +5628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="26" t="s">
         <v>236</v>
       </c>
@@ -4673,7 +5648,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="26" t="s">
         <v>237</v>
       </c>
@@ -4690,7 +5665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="26" t="s">
         <v>238</v>
       </c>
@@ -4707,7 +5682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="26" t="s">
         <v>239</v>
       </c>
@@ -4724,7 +5699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
         <v>240</v>
       </c>
@@ -4741,7 +5716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="26" t="s">
         <v>241</v>
       </c>
@@ -4758,7 +5733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="s">
         <v>242</v>
       </c>
@@ -4775,7 +5750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="26" t="s">
         <v>243</v>
       </c>
@@ -4792,7 +5767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
         <v>244</v>
       </c>
@@ -4809,7 +5784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="s">
         <v>245</v>
       </c>
@@ -4826,7 +5801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="26" t="s">
         <v>246</v>
       </c>
@@ -4843,7 +5818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="26" t="s">
         <v>247</v>
       </c>
@@ -4860,7 +5835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
         <v>249</v>
       </c>
@@ -4877,7 +5852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="26" t="s">
         <v>248</v>
       </c>
@@ -4894,7 +5869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="26" t="s">
         <v>250</v>
       </c>
@@ -4911,7 +5886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="26" t="s">
         <v>251</v>
       </c>
@@ -4928,7 +5903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="26" t="s">
         <v>252</v>
       </c>
@@ -4945,7 +5920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="26" t="s">
         <v>253</v>
       </c>
@@ -4962,7 +5937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="26" t="s">
         <v>254</v>
       </c>
@@ -4979,7 +5954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="26" t="s">
         <v>255</v>
       </c>
@@ -4996,7 +5971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="26" t="s">
         <v>256</v>
       </c>
@@ -5013,7 +5988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
         <v>436</v>
       </c>
@@ -5030,7 +6005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="25" t="s">
         <v>438</v>
       </c>
@@ -5047,7 +6022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="25" t="s">
         <v>440</v>
       </c>
@@ -5064,7 +6039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
         <v>442</v>
       </c>
@@ -5081,7 +6056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="25" t="s">
         <v>444</v>
       </c>
@@ -5098,7 +6073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="25" t="s">
         <v>446</v>
       </c>
@@ -5115,7 +6090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="25" t="s">
         <v>448</v>
       </c>
@@ -5132,7 +6107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="25" t="s">
         <v>450</v>
       </c>
@@ -5149,7 +6124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="25" t="s">
         <v>452</v>
       </c>
@@ -5166,7 +6141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="25" t="s">
         <v>231</v>
       </c>
@@ -5183,7 +6158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
         <v>453</v>
       </c>
@@ -5200,7 +6175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="25" t="s">
         <v>455</v>
       </c>
@@ -5217,7 +6192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="25" t="s">
         <v>457</v>
       </c>
@@ -5234,7 +6209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="25" t="s">
         <v>459</v>
       </c>
@@ -5251,7 +6226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="25" t="s">
         <v>461</v>
       </c>
@@ -5268,7 +6243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="25" t="s">
         <v>463</v>
       </c>
@@ -5285,7 +6260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="25" t="s">
         <v>465</v>
       </c>
@@ -5302,7 +6277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="25" t="s">
         <v>466</v>
       </c>
@@ -5319,7 +6294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="25" t="s">
         <v>468</v>
       </c>
@@ -5336,7 +6311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="25" t="s">
         <v>470</v>
       </c>
@@ -5353,7 +6328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="25" t="s">
         <v>472</v>
       </c>
@@ -5370,7 +6345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="25" t="s">
         <v>474</v>
       </c>
@@ -5387,7 +6362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="25" t="s">
         <v>476</v>
       </c>
@@ -5404,7 +6379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="25" t="s">
         <v>478</v>
       </c>
@@ -5421,7 +6396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="26" t="s">
         <v>480</v>
       </c>
@@ -5441,7 +6416,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="26" t="s">
         <v>482</v>
       </c>
@@ -5458,7 +6433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="26" t="s">
         <v>484</v>
       </c>
@@ -5475,7 +6450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="26" t="s">
         <v>486</v>
       </c>
@@ -5492,7 +6467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="26" t="s">
         <v>488</v>
       </c>
@@ -5509,7 +6484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="26" t="s">
         <v>490</v>
       </c>
@@ -5526,7 +6501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="26" t="s">
         <v>492</v>
       </c>
@@ -5543,7 +6518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="26" t="s">
         <v>494</v>
       </c>
@@ -5560,7 +6535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="26" t="s">
         <v>496</v>
       </c>
@@ -5577,7 +6552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" s="39" t="s">
         <v>498</v>
       </c>
@@ -5597,7 +6572,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="26" t="s">
         <v>512</v>
       </c>
@@ -5614,12 +6589,2261 @@
         <v>376</v>
       </c>
     </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="G113" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="G114" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F115" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="G115" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="G117" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="G120" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="G121" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="G123" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="G124" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="G125" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="G126" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="G127" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="G128" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="G129" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="G130" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="I130" s="27"/>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="G131" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I131" s="27"/>
+    </row>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="G132" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I132" s="27" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="G133" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="G134" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="G135" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F136" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="G136" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F137" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="G137" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="G138" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F139" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="G139" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F140" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="G140" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="G141" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="G142" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F143" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="G143" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="G144" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F145" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="G146" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F147" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F148" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="G148" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="G149" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="G150" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="G151" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="G152" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F153" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="G153" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="G154" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F155" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="G155" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F156" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="G156" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F157" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="G157" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="G158" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B159" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F159" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="G159" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F160" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="G160" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B161" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F161" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="G161" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F162" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="G162" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B163" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F163" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="G163" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E164" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F164" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="G164" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="C165" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E165" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F165" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="G165" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F166" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="G166" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F167" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="G167" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="C168" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F168" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="G168" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F169" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="G169" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F170" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="G170" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B171" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F171" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="G171" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B172" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="C172" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F172" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="G172" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B173" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="C173" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F173" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="G173" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="C174" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F174" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="G174" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="C175" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F175" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="G175" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="C176" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F176" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="G176" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E177" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F177" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="G177" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="C178" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F178" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="G178" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E179" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F179" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="G179" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F180" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="G180" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B181" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E181" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F181" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="G181" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B182" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E182" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F182" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="G182" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F183" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="G183" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B184" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E184" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F184" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="G184" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F185" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="G185" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F186" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="G186" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E187" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F187" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="G187" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F188" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="G188" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F189" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="G189" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E190" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F190" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="G190" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E191" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F191" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="G191" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E192" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F192" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="G192" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B193" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F193" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="G193" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F194" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="G194" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B195" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F195" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="G195" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B196" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="C196" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E196" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F196" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="G196" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F197" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="G197" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F198" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="G198" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E199" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F199" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="G199" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E200" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F200" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="G200" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B201" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E201" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F201" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="G201" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F202" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="G202" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E203" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F203" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="G203" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="C204" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F204" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="G204" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F205" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="G205" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E206" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="F206" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G206" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E207" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="F207" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="G207" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I207" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="J207" s="27"/>
+    </row>
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E208" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="F208" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="G208" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="G209" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="F210" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="G210" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="C211" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="F211" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="G211" s="26" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="G212" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="F213" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="G213" s="26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F214" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="G214" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="C215" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E215" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F215" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="G215" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E216" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="G216" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="C217" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="G217" s="26" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E218" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F218" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="G218" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="E219" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F219" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="G219" s="26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E220" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="F220" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="G220" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="C221" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E221" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="F221" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="G221" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E222" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F222" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="G222" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="C223" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E223" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="F223" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="G223" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E224" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="F224" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="G224" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="C225" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E225" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="F225" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="G225" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="C226" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E226" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F226" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="G226" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="C227" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="E227" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F227" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="G227" s="26" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B228" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="C228" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E228" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F228" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="G228" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B229" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="C229" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E229" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F229" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="G229" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V109"/>
+  <autoFilter ref="A1:V229">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Marketing Basic"/>
+        <filter val="Marketing Website"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -5627,9 +8851,9 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:AE347"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -5639,23 +8863,92 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B5 B1 B110:B1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="24"/>
+  <conditionalFormatting sqref="B230:B1048576 B4:B5 B1 B110:B164">
+    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 G4:G5">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14 B13:B14">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17 B39:B108">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  <conditionalFormatting sqref="B230:B99971 B5:B164">
+    <cfRule type="duplicateValues" dxfId="40" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B165:B229">
+    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E206">
+    <cfRule type="duplicateValues" dxfId="38" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E207">
+    <cfRule type="duplicateValues" dxfId="37" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E208">
+    <cfRule type="duplicateValues" dxfId="36" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E209">
+    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E210">
+    <cfRule type="duplicateValues" dxfId="34" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E211">
+    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E212">
+    <cfRule type="duplicateValues" dxfId="32" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E213">
+    <cfRule type="duplicateValues" dxfId="31" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E214">
+    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E215">
+    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E216">
+    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E217">
+    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E219">
+    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E218">
+    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E220">
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E221">
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E222">
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E223">
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E224">
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E225">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E226">
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E227">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5725,7 +9018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>267</v>
       </c>
@@ -5749,7 +9042,7 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
     </row>
-    <row r="3" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>268</v>
       </c>
@@ -5775,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>269</v>
       </c>
@@ -5795,7 +9088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>270</v>
       </c>
@@ -5818,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>270</v>
       </c>
@@ -5889,14 +9182,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -5909,9 +9202,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AA84"/>
+  <dimension ref="A1:AA158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5949,7 +9242,7 @@
     <col min="28" max="16384" width="11" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -6070,33 +9363,30 @@
       <c r="B4" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>101</v>
+      <c r="D4" s="50" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>362</v>
+      <c r="D5" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>363</v>
+      <c r="D6" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -6104,24 +9394,18 @@
         <v>225</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>351</v>
+        <v>349</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>101</v>
+        <v>225</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -6129,9 +9413,9 @@
         <v>224</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="G9" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>101</v>
       </c>
       <c r="K9" s="39" t="s">
@@ -6145,8 +9429,17 @@
       <c r="B10" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>364</v>
+      <c r="D10" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -6154,15 +9447,18 @@
         <v>224</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>566</v>
+      </c>
       <c r="B12" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>368</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -6170,7 +9466,7 @@
         <v>224</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -6178,635 +9474,1485 @@
         <v>224</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>502</v>
+      <c r="D15" s="26" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="26" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="26" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="40" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="40" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H37" s="39" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="40" t="s">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H38" s="39" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="39" t="s">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H39" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O39" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="40" t="s">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H40" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O40" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="39" t="s">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O45" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="P31" s="25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="P32" s="39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="50" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>455</v>
+      <c r="D48" s="26" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>457</v>
+      <c r="D49" s="26" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>459</v>
+      <c r="D50" s="26" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D51" s="25" t="s">
-        <v>461</v>
+      <c r="D51" s="26" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D52" s="25" t="s">
-        <v>463</v>
+      <c r="D52" s="26" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D53" s="25" t="s">
-        <v>465</v>
+      <c r="D53" s="26" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="25" t="s">
-        <v>466</v>
+      <c r="D54" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="O54" s="39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>468</v>
+      <c r="D55" s="39" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D56" s="25" t="s">
-        <v>470</v>
+      <c r="D56" s="26" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>472</v>
+      <c r="D57" s="39" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>474</v>
+      <c r="D58" s="26" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="25" t="s">
-        <v>476</v>
+      <c r="D59" s="26" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D60" s="25" t="s">
-        <v>478</v>
+      <c r="D60" s="26" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F61" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K61" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="N61" s="39" t="s">
-        <v>101</v>
+        <v>224</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="G62" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K62" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="N62" s="39" t="s">
-        <v>101</v>
+        <v>224</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="P94" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D95" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="P95" s="39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" s="45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D99" s="39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D100" s="39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D125" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F125" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K125" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="N125" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D126" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="G126" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K126" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="N126" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B127" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D127" s="39" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B128" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D128" s="50" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B129" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D129" s="45" t="s">
         <v>352</v>
       </c>
-      <c r="O64" s="39" t="s">
+      <c r="O129" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="39" t="s">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B130" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D65" s="46" t="s">
+      <c r="D130" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="P65" s="25" t="s">
+      <c r="P130" s="25" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="39" t="s">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B131" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D131" s="45" t="s">
         <v>349</v>
       </c>
-      <c r="P66" s="39" t="s">
+      <c r="P131" s="39" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="39" t="s">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B132" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D67" s="45" t="s">
+      <c r="D132" s="45" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="39" t="s">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B133" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="D133" s="39" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="39" t="s">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B134" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="D134" s="39" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="39" t="s">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B135" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D135" s="39" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="39" t="s">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B136" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D71" s="39" t="s">
+      <c r="D136" s="39" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="39" t="s">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B137" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D137" s="39" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="39" t="s">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B138" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D138" s="39" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="39" t="s">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B139" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D74" s="39" t="s">
+      <c r="D139" s="39" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B75" s="39" t="s">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B140" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="39" t="s">
+      <c r="D140" s="39" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="39" t="s">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B141" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D141" s="39" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="39" t="s">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B142" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D77" s="39" t="s">
+      <c r="D142" s="39" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="39" t="s">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B143" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D143" s="39" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B79" s="39" t="s">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B144" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D144" s="39" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B80" s="39" t="s">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B145" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D80" s="39" t="s">
+      <c r="D145" s="39" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="39" t="s">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B146" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D81" s="39" t="s">
+      <c r="D146" s="39" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D82" s="39" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="39" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="39" t="s">
-        <v>512</v>
-      </c>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147"/>
+      <c r="AA147"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+      <c r="Y148"/>
+      <c r="Z148"/>
+      <c r="AA148"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+      <c r="X149"/>
+      <c r="Y149"/>
+      <c r="Z149"/>
+      <c r="AA149"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150"/>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+      <c r="Y150"/>
+      <c r="Z150"/>
+      <c r="AA150"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+      <c r="AA151"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+      <c r="AA152"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153"/>
+      <c r="S153"/>
+      <c r="T153"/>
+      <c r="U153"/>
+      <c r="V153"/>
+      <c r="W153"/>
+      <c r="X153"/>
+      <c r="Y153"/>
+      <c r="Z153"/>
+      <c r="AA153"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+      <c r="X154"/>
+      <c r="Y154"/>
+      <c r="Z154"/>
+      <c r="AA154"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+      <c r="X155"/>
+      <c r="Y155"/>
+      <c r="Z155"/>
+      <c r="AA155"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+      <c r="X156"/>
+      <c r="Y156"/>
+      <c r="Z156"/>
+      <c r="AA156"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+      <c r="Y157"/>
+      <c r="Z157"/>
+      <c r="AA157"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158"/>
+      <c r="S158"/>
+      <c r="T158"/>
+      <c r="U158"/>
+      <c r="V158"/>
+      <c r="W158"/>
+      <c r="X158"/>
+      <c r="Y158"/>
+      <c r="Z158"/>
+      <c r="AA158"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA1"/>
-  <sortState ref="A2:AA82">
-    <sortCondition ref="B2:B82"/>
-    <sortCondition ref="F2:F82"/>
-    <sortCondition ref="G2:G82"/>
-    <sortCondition ref="D2:D82"/>
+  <autoFilter ref="A1:AA146"/>
+  <sortState ref="A2:AA160">
+    <sortCondition ref="B2:B160"/>
+    <sortCondition ref="F2:F160"/>
+    <sortCondition ref="G2:G160"/>
+    <sortCondition ref="D2:D160"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AA594"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="130" filter="1" showAutoFilter="1" hiddenRows="1">
       <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6818,54 +10964,57 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA594"/>
-    </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="D28:D30">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D33:D38">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D42">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D64">
+    <cfRule type="duplicateValues" dxfId="5" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:D129">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D32">
+  <conditionalFormatting sqref="D89:D90">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D40">
+  <conditionalFormatting sqref="D106:D129">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D44">
+  <conditionalFormatting sqref="D130:D146">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D66">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="duplicateValues" dxfId="0" priority="157"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7386,12 +11535,12 @@
     <sortCondition ref="B2:B41"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7500,12 +11649,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7528,6 +11677,65 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -7705,65 +11913,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
   <ds:schemaRefs>
@@ -7782,6 +11931,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CAC4C16-FDF5-437E-A8C4-D650CA39502E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7798,20 +11963,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -46,8 +46,8 @@
   </definedNames>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
     <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2764,9 +2764,9 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="18"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="18" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="18" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="18" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -3605,73 +3605,73 @@
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="49"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="49"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="49"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="49"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
@@ -3840,12 +3840,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
+      <selection activeCell="A5" sqref="A5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
       <selection activeCell="B34" sqref="B34"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
-      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4072,12 +4072,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4252,11 +4252,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4500,14 +4500,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4518,14 +4518,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" filterMode="1"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AG229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B205" sqref="B6:B205"/>
+      <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4622,7 +4622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>349</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
         <v>350</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>351</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>352</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
         <v>502</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>260</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
         <v>259</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>257</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
         <v>258</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>226</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>347</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
         <v>235</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
         <v>234</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
         <v>300</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="25" t="s">
         <v>403</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>406</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>408</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="25" t="s">
         <v>410</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="25" t="s">
         <v>412</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="25" t="s">
         <v>414</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="26" t="s">
         <v>227</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="25" t="s">
         <v>416</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="25" t="s">
         <v>418</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
         <v>420</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>422</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
         <v>424</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="25" t="s">
         <v>426</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
         <v>428</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
         <v>430</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="26" t="s">
         <v>432</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="26" t="s">
         <v>434</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="26" t="s">
         <v>236</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="26" t="s">
         <v>237</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="26" t="s">
         <v>238</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="26" t="s">
         <v>239</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
         <v>240</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="26" t="s">
         <v>241</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="s">
         <v>242</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="26" t="s">
         <v>243</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
         <v>244</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="s">
         <v>245</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="26" t="s">
         <v>246</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="26" t="s">
         <v>247</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
         <v>249</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="26" t="s">
         <v>248</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="26" t="s">
         <v>250</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="26" t="s">
         <v>251</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="26" t="s">
         <v>252</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="26" t="s">
         <v>253</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="26" t="s">
         <v>254</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="26" t="s">
         <v>255</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="26" t="s">
         <v>256</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
         <v>436</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="25" t="s">
         <v>438</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="25" t="s">
         <v>440</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
         <v>442</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="25" t="s">
         <v>444</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="25" t="s">
         <v>446</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="25" t="s">
         <v>448</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="25" t="s">
         <v>450</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="25" t="s">
         <v>452</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="25" t="s">
         <v>231</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
         <v>453</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="25" t="s">
         <v>455</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="25" t="s">
         <v>457</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="25" t="s">
         <v>459</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="25" t="s">
         <v>461</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="25" t="s">
         <v>463</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="25" t="s">
         <v>465</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="25" t="s">
         <v>466</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="25" t="s">
         <v>468</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="25" t="s">
         <v>470</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="25" t="s">
         <v>472</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" s="25" t="s">
         <v>474</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B98" s="25" t="s">
         <v>476</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B99" s="25" t="s">
         <v>478</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B100" s="26" t="s">
         <v>480</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="26" t="s">
         <v>482</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B102" s="26" t="s">
         <v>484</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B103" s="26" t="s">
         <v>486</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="26" t="s">
         <v>488</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="26" t="s">
         <v>490</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="26" t="s">
         <v>492</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" s="26" t="s">
         <v>494</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B108" s="26" t="s">
         <v>496</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="26" t="s">
         <v>512</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>566</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
         <v>566</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>566</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>566</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>566</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
         <v>566</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>566</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>566</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="26" t="s">
         <v>566</v>
       </c>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="I130" s="27"/>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="26" t="s">
         <v>750</v>
       </c>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="I131" s="27"/>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B132" s="26" t="s">
         <v>749</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
         <v>566</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
         <v>566</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
         <v>566</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
         <v>566</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
         <v>566</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="26" t="s">
         <v>566</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
         <v>566</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
         <v>566</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
         <v>566</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
         <v>566</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
         <v>566</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
         <v>566</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="26" t="s">
         <v>566</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="26" t="s">
         <v>566</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="26" t="s">
         <v>566</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="26" t="s">
         <v>566</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="26" t="s">
         <v>566</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="26" t="s">
         <v>566</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="26" t="s">
         <v>566</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="26" t="s">
         <v>566</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="26" t="s">
         <v>566</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="26" t="s">
         <v>566</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="26" t="s">
         <v>566</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="26" t="s">
         <v>566</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="26" t="s">
         <v>566</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="26" t="s">
         <v>566</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="26" t="s">
         <v>566</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="26" t="s">
         <v>566</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="26" t="s">
         <v>566</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="26" t="s">
         <v>566</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="26" t="s">
         <v>566</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B206" s="26" t="s">
         <v>705</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B207" s="26" t="s">
         <v>706</v>
       </c>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="J207" s="27"/>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B208" s="26" t="s">
         <v>708</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="26" t="s">
         <v>710</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="210" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="26" t="s">
         <v>712</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="26" t="s">
         <v>714</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="212" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="26" t="s">
         <v>717</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="26" t="s">
         <v>719</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="214" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="26" t="s">
         <v>722</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="26" t="s">
         <v>724</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="216" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="26" t="s">
         <v>726</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="217" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="26" t="s">
         <v>728</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="218" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="26" t="s">
         <v>730</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="26" t="s">
         <v>732</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="220" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="26" t="s">
         <v>734</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="221" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="26" t="s">
         <v>736</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="222" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="26" t="s">
         <v>737</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="223" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="26" t="s">
         <v>738</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="26" t="s">
         <v>739</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B225" s="26" t="s">
         <v>740</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B226" s="26" t="s">
         <v>742</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B227" s="26" t="s">
         <v>743</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="26" t="s">
         <v>566</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="26" t="s">
         <v>566</v>
       </c>
@@ -8829,21 +8829,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V229">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Marketing Basic"/>
-        <filter val="Marketing Website"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V229"/>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -8851,9 +8841,9 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:AE347"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -9182,14 +9172,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9204,8 +9194,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AA158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
@@ -9363,7 +9353,7 @@
       <c r="B4" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="48" t="s">
         <v>512</v>
       </c>
     </row>
@@ -9758,7 +9748,7 @@
       <c r="B47" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="48" t="s">
         <v>512</v>
       </c>
     </row>
@@ -10433,7 +10423,7 @@
       <c r="B128" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D128" s="50" t="s">
+      <c r="D128" s="48" t="s">
         <v>512</v>
       </c>
     </row>
@@ -10947,12 +10937,6 @@
     <sortCondition ref="D2:D160"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA594"/>
-    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="130" filter="1" showAutoFilter="1" hiddenRows="1">
       <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10963,6 +10947,12 @@
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AA594"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="D4:D5">
@@ -11535,12 +11525,12 @@
     <sortCondition ref="B2:B41"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11649,12 +11639,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11677,65 +11667,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -11913,6 +11844,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
   <ds:schemaRefs>
@@ -11931,22 +11921,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CAC4C16-FDF5-437E-A8C4-D650CA39502E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11963,4 +11937,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\git\Beiersdorf\seeddata-bsdf\99-exceldmd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilbhatia/github/Beiersdorf/seeddata-bsdf/99-exceldmd/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="23540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,8 @@
     <definedName name="_Attribute_Display_Types">'[1]20170320 065838_DataModel_Templ'!#REF!</definedName>
     <definedName name="_Attribute_Name">'[1]S7 - Attribute'!$E$2:$E$1048576</definedName>
     <definedName name="_Boolean">'[1]20170320 065838_DataModel_Templ'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ATTRIBUTES!$A$1:$V$229</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E-A-R-C MODEL'!$A$1:$AA$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ATTRIBUTES!$A$1:$V$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E-A-R-C MODEL'!$A$1:$AA$146</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ENTITIES!$A$1:$D$1</definedName>
     <definedName name="_RefDataAttribute">ATTRIBUTES!#REF!</definedName>
     <definedName name="RefDataAttribute">ATTRIBUTES!#REF!</definedName>
@@ -67,7 +67,7 @@
     <author>Eric Sambach</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0">
+    <comment ref="B6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="707">
   <si>
     <t>ACTION</t>
   </si>
@@ -1714,33 +1714,15 @@
     <t>Last Modified Date</t>
   </si>
   <si>
-    <t>aactiveingredient_</t>
-  </si>
-  <si>
-    <t>aallergens</t>
-  </si>
-  <si>
     <t>aassignedto</t>
   </si>
   <si>
-    <t>aattachments_</t>
-  </si>
-  <si>
-    <t>aawards_</t>
-  </si>
-  <si>
     <t>abeautyritual</t>
   </si>
   <si>
     <t>abodypart</t>
   </si>
   <si>
-    <t>acarecategory_</t>
-  </si>
-  <si>
-    <t>aclaimbenefit_</t>
-  </si>
-  <si>
     <t>aconsumerneed</t>
   </si>
   <si>
@@ -1759,9 +1741,6 @@
     <t>aexporttoberetail</t>
   </si>
   <si>
-    <t>afragrance_</t>
-  </si>
-  <si>
     <t>aglobalexitdate</t>
   </si>
   <si>
@@ -1774,9 +1753,6 @@
     <t>aingredientlist</t>
   </si>
   <si>
-    <t>aispromotionarticle_</t>
-  </si>
-  <si>
     <t>alocalexitdate</t>
   </si>
   <si>
@@ -1795,69 +1771,24 @@
     <t>anartactive</t>
   </si>
   <si>
-    <t>anaturalcosmetics_</t>
-  </si>
-  <si>
-    <t>anominalnetcontentcustom_</t>
-  </si>
-  <si>
-    <t>anoningredients_</t>
-  </si>
-  <si>
-    <t>aphneutral_</t>
-  </si>
-  <si>
     <t>aproductproperties</t>
   </si>
   <si>
     <t>aregistrationnumber</t>
   </si>
   <si>
-    <t>aregulartoryclassification_</t>
-  </si>
-  <si>
-    <t>aretailerlisting_</t>
-  </si>
-  <si>
     <t>aretailleaflettext</t>
   </si>
   <si>
     <t>asapproductname</t>
   </si>
   <si>
-    <t>aseals_</t>
-  </si>
-  <si>
-    <t>aseasonalproduct_</t>
-  </si>
-  <si>
-    <t>asensitive_</t>
-  </si>
-  <si>
     <t>ashortdescription</t>
   </si>
   <si>
-    <t>askintype_</t>
-  </si>
-  <si>
-    <t>aspecialingredients_</t>
-  </si>
-  <si>
-    <t>asuitableforbabys_</t>
-  </si>
-  <si>
-    <t>asuitableforkids_</t>
-  </si>
-  <si>
-    <t>asunprotectionfactor_</t>
-  </si>
-  <si>
     <t>asynonyme</t>
   </si>
   <si>
-    <t>atexture_</t>
-  </si>
-  <si>
     <t>ausageinstructions</t>
   </si>
   <si>
@@ -1873,24 +1804,12 @@
     <t>ahairtype</t>
   </si>
   <si>
-    <t>Active Ingredient</t>
-  </si>
-  <si>
     <t>NumericTextBox</t>
   </si>
   <si>
-    <t>Allergens</t>
-  </si>
-  <si>
     <t>AssignedTo</t>
   </si>
   <si>
-    <t>Attachments</t>
-  </si>
-  <si>
-    <t>Awards</t>
-  </si>
-  <si>
     <t>CheckBox</t>
   </si>
   <si>
@@ -1900,12 +1819,6 @@
     <t>Body Part</t>
   </si>
   <si>
-    <t>Care Category</t>
-  </si>
-  <si>
-    <t>Claim/ Benefit</t>
-  </si>
-  <si>
     <t>Insight</t>
   </si>
   <si>
@@ -1924,9 +1837,6 @@
     <t>Export to BE retail</t>
   </si>
   <si>
-    <t>Fragrance</t>
-  </si>
-  <si>
     <t>Global Exit Date</t>
   </si>
   <si>
@@ -1942,9 +1852,6 @@
     <t>Ingredient List</t>
   </si>
   <si>
-    <t>Is Promotion Article</t>
-  </si>
-  <si>
     <t>Local Exit Date</t>
   </si>
   <si>
@@ -1963,67 +1870,22 @@
     <t>NART Active</t>
   </si>
   <si>
-    <t>Natural Cosmetics</t>
-  </si>
-  <si>
-    <t>Nominal Net Content Custom</t>
-  </si>
-  <si>
-    <t>Non Ingredients</t>
-  </si>
-  <si>
-    <t>pH-Neutral</t>
-  </si>
-  <si>
     <t>Product properties</t>
   </si>
   <si>
     <t>Registration Number</t>
   </si>
   <si>
-    <t>Regulatory Classification EEA</t>
-  </si>
-  <si>
-    <t>Retailer Listing</t>
-  </si>
-  <si>
     <t>Retail Leaflet Text</t>
   </si>
   <si>
     <t>SAP Product Name</t>
   </si>
   <si>
-    <t>Seals</t>
-  </si>
-  <si>
-    <t>Seasonal Product</t>
-  </si>
-  <si>
-    <t>Sensitive</t>
-  </si>
-  <si>
     <t>Product Short Description</t>
   </si>
   <si>
-    <t>Skin Type</t>
-  </si>
-  <si>
-    <t>Special Ingredients</t>
-  </si>
-  <si>
-    <t>Suitable for Babys</t>
-  </si>
-  <si>
-    <t>Suitable For Kids</t>
-  </si>
-  <si>
-    <t>Sun Protection Factor</t>
-  </si>
-  <si>
     <t>Synonyme</t>
-  </si>
-  <si>
-    <t>Texture</t>
   </si>
   <si>
     <t>Usage Instructions</t>
@@ -2431,7 +2293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -2705,7 +2567,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2767,6 +2629,7 @@
     <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="18" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -3585,7 +3448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C34"/>
@@ -3594,11 +3457,11 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="87.625" customWidth="1"/>
+    <col min="3" max="3" width="87.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3866,25 +3729,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
+  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4090,20 +3953,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A4:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4271,15 +4134,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="32" customWidth="1"/>
     <col min="3" max="3" width="29" style="26" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="26" customWidth="1"/>
     <col min="5" max="16384" width="11" style="26"/>
   </cols>
   <sheetData>
@@ -4444,20 +4307,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4518,40 +4381,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AG229"/>
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:AG206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
+      <selection pane="bottomRight" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="38.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="27" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="26.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="26.1640625" style="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.125" style="26"/>
+    <col min="21" max="21" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="7.1640625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -5056,9 +4919,6 @@
       <c r="C22" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>101</v>
-      </c>
       <c r="E22" s="26" t="s">
         <v>102</v>
       </c>
@@ -5076,6 +4936,9 @@
       <c r="C23" s="26" t="s">
         <v>33</v>
       </c>
+      <c r="D23" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="E23" s="26" t="s">
         <v>233</v>
       </c>
@@ -5635,9 +5498,6 @@
       <c r="C55" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>101</v>
-      </c>
       <c r="E55" s="26" t="s">
         <v>103</v>
       </c>
@@ -5655,6 +5515,9 @@
       <c r="C56" s="26" t="s">
         <v>31</v>
       </c>
+      <c r="D56" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="E56" s="26" t="s">
         <v>236</v>
       </c>
@@ -5903,7 +5766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="26" t="s">
         <v>252</v>
       </c>
@@ -5920,7 +5783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="26" t="s">
         <v>253</v>
       </c>
@@ -5937,7 +5800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="26" t="s">
         <v>254</v>
       </c>
@@ -5954,7 +5817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="26" t="s">
         <v>255</v>
       </c>
@@ -5971,7 +5834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="26" t="s">
         <v>256</v>
       </c>
@@ -5988,7 +5851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="25" t="s">
         <v>436</v>
       </c>
@@ -6005,7 +5868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="25" t="s">
         <v>438</v>
       </c>
@@ -6022,7 +5885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="25" t="s">
         <v>440</v>
       </c>
@@ -6039,7 +5902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="25" t="s">
         <v>442</v>
       </c>
@@ -6056,7 +5919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="25" t="s">
         <v>444</v>
       </c>
@@ -6073,7 +5936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="25" t="s">
         <v>446</v>
       </c>
@@ -6090,7 +5953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="25" t="s">
         <v>448</v>
       </c>
@@ -6107,7 +5970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="25" t="s">
         <v>450</v>
       </c>
@@ -6124,7 +5987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="25" t="s">
         <v>452</v>
       </c>
@@ -6141,7 +6004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="25" t="s">
         <v>231</v>
       </c>
@@ -6158,7 +6021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="25" t="s">
         <v>453</v>
       </c>
@@ -6175,7 +6038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="25" t="s">
         <v>455</v>
       </c>
@@ -6192,7 +6055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="25" t="s">
         <v>457</v>
       </c>
@@ -6209,7 +6072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="25" t="s">
         <v>459</v>
       </c>
@@ -6226,7 +6089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="25" t="s">
         <v>461</v>
       </c>
@@ -6243,7 +6106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="25" t="s">
         <v>463</v>
       </c>
@@ -6260,7 +6123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="25" t="s">
         <v>465</v>
       </c>
@@ -6277,7 +6140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="25" t="s">
         <v>466</v>
       </c>
@@ -6294,7 +6157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="25" t="s">
         <v>468</v>
       </c>
@@ -6311,7 +6174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="25" t="s">
         <v>470</v>
       </c>
@@ -6328,7 +6191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="25" t="s">
         <v>472</v>
       </c>
@@ -6345,7 +6208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="25" t="s">
         <v>474</v>
       </c>
@@ -6362,7 +6225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="25" t="s">
         <v>476</v>
       </c>
@@ -6379,7 +6242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" s="25" t="s">
         <v>478</v>
       </c>
@@ -6396,7 +6259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="26" t="s">
         <v>480</v>
       </c>
@@ -6416,7 +6279,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="26" t="s">
         <v>482</v>
       </c>
@@ -6433,7 +6296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="26" t="s">
         <v>484</v>
       </c>
@@ -6450,7 +6313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="26" t="s">
         <v>486</v>
       </c>
@@ -6467,7 +6330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" s="26" t="s">
         <v>488</v>
       </c>
@@ -6484,7 +6347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="26" t="s">
         <v>490</v>
       </c>
@@ -6501,7 +6364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" s="26" t="s">
         <v>492</v>
       </c>
@@ -6518,7 +6381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="26" t="s">
         <v>494</v>
       </c>
@@ -6535,7 +6398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" s="26" t="s">
         <v>496</v>
       </c>
@@ -6552,7 +6415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" s="39" t="s">
         <v>498</v>
       </c>
@@ -6572,7 +6435,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" s="26" t="s">
         <v>512</v>
       </c>
@@ -6589,113 +6452,98 @@
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="26" t="s">
-        <v>566</v>
-      </c>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" s="26" t="s">
         <v>515</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E111" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="26" t="s">
-        <v>566</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="26" t="s">
         <v>516</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E112" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="B113" s="26" t="s">
         <v>517</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="G113" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="26" t="s">
-        <v>566</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B114" s="26" t="s">
         <v>518</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E114" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="26" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="B115" s="26" t="s">
         <v>519</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="E115" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="26" t="s">
         <v>520</v>
       </c>
@@ -6706,209 +6554,193 @@
         <v>102</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="G116" s="26" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="26" t="s">
-        <v>566</v>
-      </c>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="26" t="s">
         <v>521</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="E117" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="26" t="s">
-        <v>566</v>
-      </c>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B118" s="26" t="s">
         <v>522</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="E118" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="G118" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="26" t="s">
-        <v>566</v>
-      </c>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B119" s="26" t="s">
         <v>523</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="E119" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="G119" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" s="26" t="s">
         <v>524</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="E120" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="26" t="s">
-        <v>566</v>
-      </c>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="26" t="s">
         <v>525</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>33</v>
+        <v>376</v>
       </c>
       <c r="E121" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="G121" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="26" t="s">
         <v>526</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="E122" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="G122" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="26" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>175</v>
+        <v>100</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="E123" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="G123" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="I123" s="27"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="26" t="s">
-        <v>528</v>
+        <v>704</v>
       </c>
       <c r="C124" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="G124" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I124" s="27"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="G125" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I125" s="27" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="C126" s="26" t="s">
         <v>175</v>
-      </c>
-      <c r="E124" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F124" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="G124" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E125" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F125" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="G125" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B126" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D126" s="26" t="s">
-        <v>101</v>
       </c>
       <c r="E126" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B127" s="26" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C127" s="26" t="s">
         <v>376</v>
@@ -6917,15 +6749,15 @@
         <v>102</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="G127" s="26" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" s="26" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C128" s="26" t="s">
         <v>376</v>
@@ -6934,15 +6766,15 @@
         <v>102</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="G128" s="26" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B129" s="26" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C129" s="26" t="s">
         <v>376</v>
@@ -6951,163 +6783,155 @@
         <v>102</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="G129" s="26" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B130" s="26" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E130" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="I130" s="27"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="B131" s="26" t="s">
-        <v>750</v>
+        <v>532</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>567</v>
+        <v>102</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>751</v>
+        <v>565</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I131" s="27"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B132" s="26" t="s">
-        <v>749</v>
+        <v>533</v>
       </c>
       <c r="C132" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>567</v>
+        <v>102</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="G132" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I132" s="27" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="B133" s="26" t="s">
         <v>534</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="E133" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="26" t="s">
-        <v>566</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B134" s="26" t="s">
         <v>535</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E134" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B135" s="26" t="s">
         <v>536</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>376</v>
+        <v>31</v>
       </c>
       <c r="E135" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F135" s="26" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B136" s="26" t="s">
         <v>537</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>376</v>
+        <v>31</v>
       </c>
       <c r="E136" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F136" s="26" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B137" s="26" t="s">
         <v>538</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>376</v>
+        <v>31</v>
       </c>
       <c r="E137" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F137" s="26" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B138" s="26" t="s">
         <v>539</v>
       </c>
@@ -7118,78 +6942,69 @@
         <v>102</v>
       </c>
       <c r="F138" s="26" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="26" t="s">
-        <v>566</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B139" s="26" t="s">
         <v>540</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E139" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F139" s="26" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="B140" s="26" t="s">
         <v>541</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E140" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F140" s="26" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="26" t="s">
-        <v>566</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B141" s="26" t="s">
         <v>542</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D141" s="26" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E141" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F141" s="26" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="G141" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="26" t="s">
-        <v>566</v>
-      </c>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B142" s="26" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="C142" s="26" t="s">
         <v>100</v>
@@ -7198,21 +7013,18 @@
         <v>101</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F142" s="26" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="G142" s="26" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="26" t="s">
-        <v>566</v>
-      </c>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B143" s="26" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="C143" s="26" t="s">
         <v>100</v>
@@ -7221,21 +7033,18 @@
         <v>101</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F143" s="26" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="G143" s="26" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="26" t="s">
-        <v>566</v>
-      </c>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B144" s="26" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="C144" s="26" t="s">
         <v>100</v>
@@ -7244,436 +7053,385 @@
         <v>101</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F144" s="26" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="G144" s="26" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="26" t="s">
-        <v>566</v>
-      </c>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B145" s="26" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>33</v>
+        <v>100</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F145" s="26" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B146" s="26" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="C146" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F146" s="26" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="G146" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="26" t="s">
-        <v>566</v>
-      </c>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B147" s="26" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F147" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F148" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="G148" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="G149" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="G150" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="G151" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B152" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="G152" s="26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B153" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F153" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="G153" s="26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B154" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="G154" s="26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B155" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F155" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="G147" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>549</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E148" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F148" s="26" t="s">
+      <c r="G155" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B156" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="G148" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B149" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E149" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F149" s="26" t="s">
+      <c r="C156" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F156" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="G149" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B150" s="26" t="s">
-        <v>551</v>
-      </c>
-      <c r="C150" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E150" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F150" s="26" t="s">
+      <c r="G156" s="26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B157" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="G150" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B151" s="26" t="s">
-        <v>552</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D151" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E151" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F151" s="26" t="s">
+      <c r="C157" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F157" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="G151" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E152" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F152" s="26" t="s">
+      <c r="G157" s="26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B158" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="G152" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B153" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E153" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F153" s="26" t="s">
+      <c r="C158" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F158" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="G153" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B154" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="C154" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E154" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F154" s="26" t="s">
+      <c r="G158" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B159" s="26" t="s">
         <v>611</v>
       </c>
-      <c r="G154" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B155" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="C155" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D155" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E155" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F155" s="26" t="s">
+      <c r="C159" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F159" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="G155" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B156" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="C156" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D156" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E156" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F156" s="26" t="s">
+      <c r="G159" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B160" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="G156" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B157" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="C157" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E157" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F157" s="26" t="s">
+      <c r="C160" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F160" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="G157" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B158" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="C158" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F158" s="26" t="s">
+      <c r="G160" s="26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B161" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="G158" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B159" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="C159" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D159" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E159" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F159" s="26" t="s">
+      <c r="C161" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F161" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="G159" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B160" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="C160" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F160" s="26" t="s">
+      <c r="G161" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B162" s="26" t="s">
         <v>617</v>
-      </c>
-      <c r="G160" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B161" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="C161" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D161" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E161" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F161" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="G161" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B162" s="26" t="s">
-        <v>563</v>
       </c>
       <c r="C162" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F162" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="G162" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B163" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="G162" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B163" s="26" t="s">
-        <v>564</v>
-      </c>
       <c r="C163" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F163" s="26" t="s">
         <v>620</v>
       </c>
       <c r="G163" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B164" s="26" t="s">
-        <v>565</v>
+        <v>621</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F164" s="26" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G164" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B165" s="26" t="s">
         <v>623</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="E165" s="26" t="s">
         <v>176</v>
@@ -7682,18 +7440,15 @@
         <v>624</v>
       </c>
       <c r="G165" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B166" s="26" t="s">
         <v>625</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D166" s="26" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="E166" s="26" t="s">
         <v>176</v>
@@ -7702,18 +7457,15 @@
         <v>626</v>
       </c>
       <c r="G166" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B167" s="26" t="s">
         <v>627</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D167" s="26" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="E167" s="26" t="s">
         <v>176</v>
@@ -7722,18 +7474,15 @@
         <v>628</v>
       </c>
       <c r="G167" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B168" s="26" t="s">
         <v>629</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D168" s="26" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="E168" s="26" t="s">
         <v>176</v>
@@ -7742,15 +7491,18 @@
         <v>630</v>
       </c>
       <c r="G168" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="B169" s="26" t="s">
         <v>631</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E169" s="26" t="s">
         <v>176</v>
@@ -7759,10 +7511,10 @@
         <v>632</v>
       </c>
       <c r="G169" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B170" s="26" t="s">
         <v>633</v>
       </c>
@@ -7776,18 +7528,15 @@
         <v>634</v>
       </c>
       <c r="G170" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="26" t="s">
-        <v>566</v>
-      </c>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B171" s="26" t="s">
         <v>635</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="E171" s="26" t="s">
         <v>176</v>
@@ -7796,12 +7545,12 @@
         <v>636</v>
       </c>
       <c r="G171" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="26" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="B172" s="26" t="s">
         <v>637</v>
@@ -7819,9 +7568,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="26" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="B173" s="26" t="s">
         <v>639</v>
@@ -7839,15 +7588,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="26" t="s">
-        <v>566</v>
-      </c>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B174" s="26" t="s">
         <v>641</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>33</v>
+        <v>376</v>
       </c>
       <c r="E174" s="26" t="s">
         <v>176</v>
@@ -7856,15 +7602,15 @@
         <v>642</v>
       </c>
       <c r="G174" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B175" s="26" t="s">
         <v>643</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>175</v>
+        <v>376</v>
       </c>
       <c r="E175" s="26" t="s">
         <v>176</v>
@@ -7873,15 +7619,15 @@
         <v>644</v>
       </c>
       <c r="G175" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B176" s="26" t="s">
         <v>645</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="E176" s="26" t="s">
         <v>176</v>
@@ -7890,15 +7636,15 @@
         <v>646</v>
       </c>
       <c r="G176" s="26" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B177" s="26" t="s">
         <v>647</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="E177" s="26" t="s">
         <v>176</v>
@@ -7907,15 +7653,15 @@
         <v>648</v>
       </c>
       <c r="G177" s="26" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B178" s="26" t="s">
         <v>649</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>376</v>
+        <v>144</v>
       </c>
       <c r="E178" s="26" t="s">
         <v>176</v>
@@ -7924,10 +7670,10 @@
         <v>650</v>
       </c>
       <c r="G178" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B179" s="26" t="s">
         <v>651</v>
       </c>
@@ -7941,15 +7687,18 @@
         <v>652</v>
       </c>
       <c r="G179" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="B180" s="26" t="s">
         <v>653</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="E180" s="26" t="s">
         <v>176</v>
@@ -7958,12 +7707,12 @@
         <v>654</v>
       </c>
       <c r="G180" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="26" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="B181" s="26" t="s">
         <v>655</v>
@@ -7981,15 +7730,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="26" t="s">
-        <v>566</v>
-      </c>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B182" s="26" t="s">
         <v>657</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="E182" s="26" t="s">
         <v>176</v>
@@ -7998,838 +7744,429 @@
         <v>658</v>
       </c>
       <c r="G182" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B183" s="26" t="s">
         <v>659</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F183" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="F183" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G183" s="26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B184" s="26" t="s">
         <v>660</v>
-      </c>
-      <c r="G183" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B184" s="26" t="s">
-        <v>661</v>
       </c>
       <c r="C184" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F184" s="26" t="s">
-        <v>662</v>
+        <v>577</v>
+      </c>
+      <c r="F184" s="25" t="s">
+        <v>661</v>
       </c>
       <c r="G184" s="26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I184" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="J184" s="27"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B185" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C185" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>176</v>
+        <v>583</v>
       </c>
       <c r="F185" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="G185" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B186" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="G185" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B186" s="26" t="s">
+      <c r="C186" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="F186" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="C186" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E186" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F186" s="26" t="s">
+      <c r="G186" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B187" s="26" t="s">
         <v>666</v>
-      </c>
-      <c r="G186" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B187" s="26" t="s">
-        <v>667</v>
       </c>
       <c r="C187" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E187" s="26" t="s">
-        <v>176</v>
+        <v>583</v>
       </c>
       <c r="F187" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="G187" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B188" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="G187" s="26" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B188" s="26" t="s">
+      <c r="C188" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="C188" s="26" t="s">
-        <v>175</v>
-      </c>
       <c r="E188" s="26" t="s">
-        <v>176</v>
+        <v>583</v>
       </c>
       <c r="F188" s="26" t="s">
         <v>670</v>
       </c>
       <c r="G188" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B189" s="26" t="s">
         <v>671</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>176</v>
+        <v>583</v>
       </c>
       <c r="F189" s="26" t="s">
         <v>672</v>
       </c>
       <c r="G189" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B190" s="26" t="s">
         <v>673</v>
       </c>
       <c r="C190" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="E190" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="F190" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="G190" s="26" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B191" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F191" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="G191" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B192" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="C192" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E190" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F190" s="26" t="s">
+      <c r="E192" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F192" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="G192" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B193" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F193" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="G193" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B194" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F194" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="G194" s="26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B195" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F195" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="G195" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B196" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="C196" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="G190" s="26" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B191" s="26" t="s">
-        <v>675</v>
-      </c>
-      <c r="C191" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E191" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F191" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="G191" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B192" s="26" t="s">
-        <v>677</v>
-      </c>
-      <c r="C192" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E192" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F192" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="G192" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B193" s="26" t="s">
-        <v>679</v>
-      </c>
-      <c r="C193" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E193" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F193" s="26" t="s">
-        <v>680</v>
-      </c>
-      <c r="G193" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B194" s="26" t="s">
-        <v>681</v>
-      </c>
-      <c r="C194" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E194" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F194" s="26" t="s">
-        <v>682</v>
-      </c>
-      <c r="G194" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B195" s="26" t="s">
-        <v>683</v>
-      </c>
-      <c r="C195" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E195" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F195" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="G195" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B196" s="26" t="s">
-        <v>685</v>
-      </c>
-      <c r="C196" s="26" t="s">
-        <v>33</v>
-      </c>
       <c r="E196" s="26" t="s">
-        <v>176</v>
+        <v>581</v>
       </c>
       <c r="F196" s="26" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G196" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B197" s="26" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>376</v>
+        <v>144</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>176</v>
+        <v>583</v>
       </c>
       <c r="F197" s="26" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G197" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B198" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="F198" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="C198" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="E198" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F198" s="26" t="s">
-        <v>690</v>
-      </c>
       <c r="G198" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B199" s="26" t="s">
         <v>691</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>176</v>
+        <v>581</v>
       </c>
       <c r="F199" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="G199" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B200" s="26" t="s">
         <v>692</v>
-      </c>
-      <c r="G199" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B200" s="26" t="s">
-        <v>693</v>
       </c>
       <c r="C200" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>176</v>
+        <v>583</v>
       </c>
       <c r="F200" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="G200" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B201" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E201" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="F201" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="G201" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B202" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="G200" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B201" s="26" t="s">
+      <c r="C202" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="F202" s="26" t="s">
         <v>695</v>
       </c>
-      <c r="C201" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E201" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F201" s="26" t="s">
+      <c r="G202" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B203" s="26" t="s">
         <v>696</v>
       </c>
-      <c r="G201" s="26" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B202" s="26" t="s">
+      <c r="C203" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E203" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F203" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="G203" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B204" s="26" t="s">
         <v>697</v>
       </c>
-      <c r="C202" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E202" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F202" s="26" t="s">
+      <c r="C204" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F204" s="26" t="s">
         <v>698</v>
       </c>
-      <c r="G202" s="26" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B203" s="26" t="s">
+      <c r="G204" s="26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B205" s="26" t="s">
         <v>699</v>
       </c>
-      <c r="C203" s="26" t="s">
+      <c r="C205" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="E203" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F203" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="G203" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B204" s="26" t="s">
-        <v>701</v>
-      </c>
-      <c r="C204" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E204" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F204" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="G204" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B205" s="26" t="s">
-        <v>703</v>
-      </c>
-      <c r="C205" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="E205" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F205" s="26" t="s">
-        <v>704</v>
+      <c r="F205" s="25" t="s">
+        <v>700</v>
       </c>
       <c r="G205" s="26" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="26" t="s">
+        <v>543</v>
+      </c>
       <c r="B206" s="26" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="E206" s="26" t="s">
-        <v>623</v>
+        <v>176</v>
       </c>
       <c r="F206" s="25" t="s">
-        <v>118</v>
+        <v>702</v>
       </c>
       <c r="G206" s="26" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B207" s="26" t="s">
-        <v>706</v>
-      </c>
-      <c r="C207" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E207" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="F207" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="G207" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I207" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="J207" s="27"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B208" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="C208" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E208" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="F208" s="26" t="s">
-        <v>709</v>
-      </c>
-      <c r="G208" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B209" s="26" t="s">
-        <v>710</v>
-      </c>
-      <c r="C209" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E209" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="F209" s="26" t="s">
-        <v>711</v>
-      </c>
-      <c r="G209" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B210" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C210" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E210" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="F210" s="26" t="s">
-        <v>713</v>
-      </c>
-      <c r="G210" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B211" s="26" t="s">
-        <v>714</v>
-      </c>
-      <c r="C211" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="E211" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="F211" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="G211" s="26" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B212" s="26" t="s">
-        <v>717</v>
-      </c>
-      <c r="C212" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E212" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="F212" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="G212" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B213" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="C213" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="E213" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="F213" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="G213" s="26" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B214" s="26" t="s">
-        <v>722</v>
-      </c>
-      <c r="C214" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E214" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F214" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="G214" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B215" s="26" t="s">
-        <v>724</v>
-      </c>
-      <c r="C215" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E215" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F215" s="26" t="s">
-        <v>725</v>
-      </c>
-      <c r="G215" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B216" s="26" t="s">
-        <v>726</v>
-      </c>
-      <c r="C216" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E216" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F216" s="26" t="s">
-        <v>727</v>
-      </c>
-      <c r="G216" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B217" s="26" t="s">
-        <v>728</v>
-      </c>
-      <c r="C217" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="E217" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F217" s="26" t="s">
-        <v>729</v>
-      </c>
-      <c r="G217" s="26" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="26" t="s">
-        <v>730</v>
-      </c>
-      <c r="C218" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E218" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F218" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="G218" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B219" s="26" t="s">
-        <v>732</v>
-      </c>
-      <c r="C219" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="E219" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F219" s="26" t="s">
-        <v>733</v>
-      </c>
-      <c r="G219" s="26" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B220" s="26" t="s">
-        <v>734</v>
-      </c>
-      <c r="C220" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E220" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="F220" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="G220" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B221" s="26" t="s">
-        <v>736</v>
-      </c>
-      <c r="C221" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E221" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="F221" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="G221" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B222" s="26" t="s">
-        <v>737</v>
-      </c>
-      <c r="C222" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E222" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F222" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="G222" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B223" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="C223" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E223" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="F223" s="26" t="s">
-        <v>707</v>
-      </c>
-      <c r="G223" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B224" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="C224" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E224" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="F224" s="26" t="s">
-        <v>707</v>
-      </c>
-      <c r="G224" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B225" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="C225" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E225" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="F225" s="26" t="s">
-        <v>741</v>
-      </c>
-      <c r="G225" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B226" s="26" t="s">
-        <v>742</v>
-      </c>
-      <c r="C226" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E226" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F226" s="26" t="s">
-        <v>741</v>
-      </c>
-      <c r="G226" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B227" s="26" t="s">
-        <v>743</v>
-      </c>
-      <c r="C227" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="E227" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F227" s="26" t="s">
-        <v>744</v>
-      </c>
-      <c r="G227" s="26" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B228" s="26" t="s">
-        <v>745</v>
-      </c>
-      <c r="C228" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E228" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F228" s="25" t="s">
-        <v>746</v>
-      </c>
-      <c r="G228" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B229" s="26" t="s">
-        <v>747</v>
-      </c>
-      <c r="C229" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E229" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F229" s="25" t="s">
-        <v>748</v>
-      </c>
-      <c r="G229" s="26" t="s">
-        <v>87</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V229"/>
+  <autoFilter ref="A1:V206"/>
   <customSheetViews>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
@@ -8853,7 +8190,7 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B230:B1048576 B4:B5 B1 B110:B164">
+  <conditionalFormatting sqref="B207:B1048576 B4:B5 B1 B110:B141">
     <cfRule type="duplicateValues" dxfId="45" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
@@ -8868,76 +8205,76 @@
   <conditionalFormatting sqref="D13:D14 B13:B14">
     <cfRule type="duplicateValues" dxfId="41" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B230:B99971 B5:B164">
+  <conditionalFormatting sqref="B207:B99948 B5:B141">
     <cfRule type="duplicateValues" dxfId="40" priority="156"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B165:B229">
+  <conditionalFormatting sqref="B142:B206">
     <cfRule type="duplicateValues" dxfId="39" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E206">
+  <conditionalFormatting sqref="E183">
     <cfRule type="duplicateValues" dxfId="38" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E207">
+  <conditionalFormatting sqref="E184">
     <cfRule type="duplicateValues" dxfId="37" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E208">
+  <conditionalFormatting sqref="E185">
     <cfRule type="duplicateValues" dxfId="36" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E209">
+  <conditionalFormatting sqref="E186">
     <cfRule type="duplicateValues" dxfId="35" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E210">
+  <conditionalFormatting sqref="E187">
     <cfRule type="duplicateValues" dxfId="34" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E211">
+  <conditionalFormatting sqref="E188">
     <cfRule type="duplicateValues" dxfId="33" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E212">
+  <conditionalFormatting sqref="E189">
     <cfRule type="duplicateValues" dxfId="32" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E213">
+  <conditionalFormatting sqref="E190">
     <cfRule type="duplicateValues" dxfId="31" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E214">
+  <conditionalFormatting sqref="E191">
     <cfRule type="duplicateValues" dxfId="30" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E215">
+  <conditionalFormatting sqref="E192">
     <cfRule type="duplicateValues" dxfId="29" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E216">
+  <conditionalFormatting sqref="E193">
     <cfRule type="duplicateValues" dxfId="28" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E217">
+  <conditionalFormatting sqref="E194">
     <cfRule type="duplicateValues" dxfId="27" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E219">
+  <conditionalFormatting sqref="E196">
     <cfRule type="duplicateValues" dxfId="26" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E218">
+  <conditionalFormatting sqref="E195">
     <cfRule type="duplicateValues" dxfId="25" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E220">
+  <conditionalFormatting sqref="E197">
     <cfRule type="duplicateValues" dxfId="24" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E221">
+  <conditionalFormatting sqref="E198">
     <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E222">
+  <conditionalFormatting sqref="E199">
     <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E223">
+  <conditionalFormatting sqref="E200">
     <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E224">
+  <conditionalFormatting sqref="E201">
     <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E225">
+  <conditionalFormatting sqref="E202">
     <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E226">
+  <conditionalFormatting sqref="E203">
     <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E227">
+  <conditionalFormatting sqref="E204">
     <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8950,7 +8287,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8958,22 +8295,22 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" style="26" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="26" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="26"/>
+    <col min="10" max="10" width="15.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9191,44 +8528,44 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AA158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6640625" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" style="39" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" style="39" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="12.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.83203125" style="39" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="11" style="39"/>
   </cols>
   <sheetData>
@@ -9442,13 +8779,13 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -9488,7 +8825,7 @@
         <v>224</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -9496,7 +8833,7 @@
         <v>224</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>623</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -9504,7 +8841,7 @@
         <v>224</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -9512,7 +8849,7 @@
         <v>224</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>631</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -9528,7 +8865,7 @@
         <v>224</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>693</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -9536,7 +8873,7 @@
         <v>224</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -9544,7 +8881,7 @@
         <v>224</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>679</v>
+        <v>633</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -9560,7 +8897,7 @@
         <v>224</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -9568,7 +8905,7 @@
         <v>224</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>633</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -9576,7 +8913,7 @@
         <v>224</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -9584,7 +8921,7 @@
         <v>224</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -9616,7 +8953,7 @@
         <v>224</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -9624,7 +8961,7 @@
         <v>224</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -9632,7 +8969,7 @@
         <v>224</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -9640,7 +8977,7 @@
         <v>224</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -9698,7 +9035,7 @@
         <v>224</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>629</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -9706,7 +9043,7 @@
         <v>224</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>625</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
@@ -9714,7 +9051,7 @@
         <v>224</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>627</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
@@ -9722,7 +9059,7 @@
         <v>224</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>643</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -9741,7 +9078,7 @@
         <v>224</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -9757,7 +9094,7 @@
         <v>224</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -9765,7 +9102,7 @@
         <v>224</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
@@ -9773,7 +9110,7 @@
         <v>224</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>687</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
@@ -9781,7 +9118,7 @@
         <v>224</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>689</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
@@ -9789,7 +9126,7 @@
         <v>224</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
@@ -9797,7 +9134,7 @@
         <v>224</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
@@ -9824,7 +9161,7 @@
         <v>224</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>645</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
@@ -9840,7 +9177,7 @@
         <v>224</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>647</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
@@ -9848,7 +9185,7 @@
         <v>224</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>695</v>
+        <v>649</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
@@ -9856,7 +9193,7 @@
         <v>224</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
@@ -9864,7 +9201,7 @@
         <v>224</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>649</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
@@ -9872,7 +9209,7 @@
         <v>224</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>703</v>
+        <v>657</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
@@ -9880,7 +9217,7 @@
         <v>224</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>651</v>
+        <v>605</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
@@ -9888,7 +9225,7 @@
         <v>224</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>653</v>
+        <v>607</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -9912,7 +9249,7 @@
         <v>224</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>659</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -9923,7 +9260,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="39" t="s">
         <v>224</v>
       </c>
@@ -9931,7 +9268,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="39" t="s">
         <v>224</v>
       </c>
@@ -9939,15 +9276,15 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="39" t="s">
         <v>224</v>
       </c>
@@ -9955,55 +9292,55 @@
         <v>498</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="39" t="s">
         <v>224</v>
       </c>
@@ -10011,7 +9348,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="39" t="s">
         <v>224</v>
       </c>
@@ -10019,7 +9356,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81" s="39" t="s">
         <v>224</v>
       </c>
@@ -10027,79 +9364,79 @@
         <v>397</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B88" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B91" s="39" t="s">
         <v>224</v>
       </c>
@@ -10107,15 +9444,15 @@
         <v>399</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B93" s="39" t="s">
         <v>224</v>
       </c>
@@ -10123,7 +9460,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="39" t="s">
         <v>224</v>
       </c>
@@ -10134,7 +9471,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B95" s="39" t="s">
         <v>224</v>
       </c>
@@ -10145,7 +9482,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B96" s="39" t="s">
         <v>224</v>
       </c>
@@ -10153,7 +9490,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="39" t="s">
         <v>224</v>
       </c>
@@ -10161,7 +9498,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="39" t="s">
         <v>224</v>
       </c>
@@ -10169,7 +9506,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="39" t="s">
         <v>224</v>
       </c>
@@ -10177,7 +9514,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="39" t="s">
         <v>224</v>
       </c>
@@ -10185,7 +9522,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="39" t="s">
         <v>224</v>
       </c>
@@ -10193,7 +9530,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="39" t="s">
         <v>224</v>
       </c>
@@ -10201,7 +9538,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="39" t="s">
         <v>224</v>
       </c>
@@ -10209,7 +9546,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="39" t="s">
         <v>224</v>
       </c>
@@ -10217,7 +9554,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="39" t="s">
         <v>224</v>
       </c>
@@ -10225,7 +9562,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="39" t="s">
         <v>224</v>
       </c>
@@ -10233,7 +9570,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="39" t="s">
         <v>224</v>
       </c>
@@ -10241,7 +9578,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="39" t="s">
         <v>224</v>
       </c>
@@ -10249,7 +9586,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="39" t="s">
         <v>224</v>
       </c>
@@ -10257,7 +9594,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="39" t="s">
         <v>224</v>
       </c>
@@ -10265,7 +9602,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="39" t="s">
         <v>224</v>
       </c>
@@ -10273,7 +9610,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="39" t="s">
         <v>224</v>
       </c>
@@ -10281,7 +9618,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B113" s="39" t="s">
         <v>224</v>
       </c>
@@ -10289,7 +9626,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B114" s="39" t="s">
         <v>224</v>
       </c>
@@ -10297,7 +9634,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B115" s="39" t="s">
         <v>224</v>
       </c>
@@ -10305,7 +9642,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B116" s="39" t="s">
         <v>224</v>
       </c>
@@ -10313,7 +9650,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B117" s="39" t="s">
         <v>224</v>
       </c>
@@ -10321,7 +9658,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B118" s="39" t="s">
         <v>224</v>
       </c>
@@ -10329,7 +9666,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B119" s="39" t="s">
         <v>224</v>
       </c>
@@ -10337,7 +9674,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B120" s="39" t="s">
         <v>224</v>
       </c>
@@ -10345,7 +9682,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B121" s="39" t="s">
         <v>224</v>
       </c>
@@ -10353,7 +9690,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B122" s="39" t="s">
         <v>224</v>
       </c>
@@ -10361,7 +9698,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B123" s="39" t="s">
         <v>224</v>
       </c>
@@ -10369,7 +9706,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B124" s="39" t="s">
         <v>224</v>
       </c>
@@ -10377,7 +9714,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="51"/>
       <c r="B125" s="39" t="s">
         <v>223</v>
       </c>
@@ -10394,7 +9732,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="51"/>
       <c r="B126" s="39" t="s">
         <v>223</v>
       </c>
@@ -10411,7 +9750,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="51"/>
       <c r="B127" s="39" t="s">
         <v>223</v>
       </c>
@@ -10419,7 +9759,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="51"/>
       <c r="B128" s="39" t="s">
         <v>223</v>
       </c>
@@ -10427,7 +9768,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A129" s="51"/>
       <c r="B129" s="39" t="s">
         <v>223</v>
       </c>
@@ -10438,7 +9780,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A130" s="51"/>
       <c r="B130" s="39" t="s">
         <v>223</v>
       </c>
@@ -10449,7 +9792,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A131" s="51"/>
       <c r="B131" s="39" t="s">
         <v>223</v>
       </c>
@@ -10460,7 +9804,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A132" s="51"/>
       <c r="B132" s="39" t="s">
         <v>223</v>
       </c>
@@ -10468,7 +9813,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A133" s="51"/>
       <c r="B133" s="39" t="s">
         <v>223</v>
       </c>
@@ -10476,7 +9822,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A134" s="51"/>
       <c r="B134" s="39" t="s">
         <v>223</v>
       </c>
@@ -10484,7 +9831,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A135" s="51"/>
       <c r="B135" s="39" t="s">
         <v>223</v>
       </c>
@@ -10492,7 +9840,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A136" s="51"/>
       <c r="B136" s="39" t="s">
         <v>223</v>
       </c>
@@ -10500,7 +9849,8 @@
         <v>502</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A137" s="51"/>
       <c r="B137" s="39" t="s">
         <v>223</v>
       </c>
@@ -10508,7 +9858,8 @@
         <v>503</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A138" s="51"/>
       <c r="B138" s="39" t="s">
         <v>223</v>
       </c>
@@ -10516,7 +9867,8 @@
         <v>504</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139" s="51"/>
       <c r="B139" s="39" t="s">
         <v>223</v>
       </c>
@@ -10524,7 +9876,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A140" s="51"/>
       <c r="B140" s="39" t="s">
         <v>223</v>
       </c>
@@ -10532,7 +9885,8 @@
         <v>506</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A141" s="51"/>
       <c r="B141" s="39" t="s">
         <v>223</v>
       </c>
@@ -10540,7 +9894,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142" s="51"/>
       <c r="B142" s="39" t="s">
         <v>223</v>
       </c>
@@ -10548,7 +9903,8 @@
         <v>459</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A143" s="51"/>
       <c r="B143" s="39" t="s">
         <v>223</v>
       </c>
@@ -10556,7 +9912,8 @@
         <v>507</v>
       </c>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144" s="51"/>
       <c r="B144" s="39" t="s">
         <v>223</v>
       </c>
@@ -10564,7 +9921,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A145" s="51"/>
       <c r="B145" s="39" t="s">
         <v>223</v>
       </c>
@@ -10572,7 +9930,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A146" s="51"/>
       <c r="B146" s="39" t="s">
         <v>223</v>
       </c>
@@ -10580,7 +9939,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -10609,7 +9968,7 @@
       <c r="Z147"/>
       <c r="AA147"/>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -10638,7 +9997,7 @@
       <c r="Z148"/>
       <c r="AA148"/>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -10667,7 +10026,7 @@
       <c r="Z149"/>
       <c r="AA149"/>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -10696,7 +10055,7 @@
       <c r="Z150"/>
       <c r="AA150"/>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -10725,7 +10084,7 @@
       <c r="Z151"/>
       <c r="AA151"/>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -10754,7 +10113,7 @@
       <c r="Z152"/>
       <c r="AA152"/>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -10783,7 +10142,7 @@
       <c r="Z153"/>
       <c r="AA153"/>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -10812,7 +10171,7 @@
       <c r="Z154"/>
       <c r="AA154"/>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -10841,7 +10200,7 @@
       <c r="Z155"/>
       <c r="AA155"/>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -10870,7 +10229,7 @@
       <c r="Z156"/>
       <c r="AA156"/>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -10899,7 +10258,7 @@
       <c r="Z157"/>
       <c r="AA157"/>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -11013,23 +10372,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -11543,31 +10902,31 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
+  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -11655,18 +11014,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-24</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
-      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-24</Url>
-      <Description>Z7QZ4QWJDNQ7-73874190-24</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -11844,7 +11191,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -11894,7 +11241,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11903,24 +11250,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
-    <ds:schemaRef ds:uri="2e2046eb-f52d-433a-aad8-97c651e3992c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-24</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
+      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-24</Url>
+      <Description>Z7QZ4QWJDNQ7-73874190-24</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CAC4C16-FDF5-437E-A8C4-D650CA39502E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11939,7 +11281,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -11947,10 +11289,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
+    <ds:schemaRef ds:uri="2e2046eb-f52d-433a-aad8-97c651e3992c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/PIM2.0v5 - Base Data Model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilbhatia/github/Beiersdorf/seeddata-bsdf/99-exceldmd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a\git\Beiersdorf\seeddata-bsdf\99-exceldmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="23540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="38325" windowHeight="23535" tabRatio="500" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_Attribute_Name">'[1]S7 - Attribute'!$E$2:$E$1048576</definedName>
     <definedName name="_Boolean">'[1]20170320 065838_DataModel_Templ'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ATTRIBUTES!$A$1:$V$206</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E-A-R-C MODEL'!$A$1:$AA$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E-A-R-C MODEL'!$A$1:$AA$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ENTITIES!$A$1:$D$1</definedName>
     <definedName name="_RefDataAttribute">ATTRIBUTES!#REF!</definedName>
     <definedName name="RefDataAttribute">ATTRIBUTES!#REF!</definedName>
@@ -44,10 +44,10 @@
     <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="6" hidden="1">'E-A-R-C MODEL'!$A$1:$AA$1</definedName>
     <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="3" hidden="1">ENTITIES!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
-    <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -67,7 +67,7 @@
     <author>Eric Sambach</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1">
+    <comment ref="B6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="735">
   <si>
     <t>ACTION</t>
   </si>
@@ -1042,9 +1042,6 @@
     <t>cnart</t>
   </si>
   <si>
-    <t>xnarttype</t>
-  </si>
-  <si>
     <t>cphototin</t>
   </si>
   <si>
@@ -1063,15 +1060,6 @@
     <t>Others</t>
   </si>
   <si>
-    <t>dnarttype</t>
-  </si>
-  <si>
-    <t>NART Type</t>
-  </si>
-  <si>
-    <t>anarttype</t>
-  </si>
-  <si>
     <t>cargentina</t>
   </si>
   <si>
@@ -1321,9 +1309,6 @@
     <t>apageurl</t>
   </si>
   <si>
-    <t>Page URL</t>
-  </si>
-  <si>
     <t>apao</t>
   </si>
   <si>
@@ -2288,12 +2273,111 @@
   </si>
   <si>
     <t>dbenefitfilter</t>
+  </si>
+  <si>
+    <t>Entity Type</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>dentitytype</t>
+  </si>
+  <si>
+    <t>xentitytype</t>
+  </si>
+  <si>
+    <t>cproductversion</t>
+  </si>
+  <si>
+    <t>cmasterproduct</t>
+  </si>
+  <si>
+    <t>aactiveingredient</t>
+  </si>
+  <si>
+    <t>acarecategory</t>
+  </si>
+  <si>
+    <t>Care Category</t>
+  </si>
+  <si>
+    <t>dcarecategory</t>
+  </si>
+  <si>
+    <t>aclaimbenefit</t>
+  </si>
+  <si>
+    <t>Claim/Benefit</t>
+  </si>
+  <si>
+    <t>aclaimbenefitranking</t>
+  </si>
+  <si>
+    <t>aclaimbenefittext</t>
+  </si>
+  <si>
+    <t>acommentsnoneucountries</t>
+  </si>
+  <si>
+    <t>Marketing R&amp;D</t>
+  </si>
+  <si>
+    <t>Comments NON EU Countries</t>
+  </si>
+  <si>
+    <t>acountrycomments</t>
+  </si>
+  <si>
+    <t>Country Comments</t>
+  </si>
+  <si>
+    <t>afragrance</t>
+  </si>
+  <si>
+    <t>Fragrance</t>
+  </si>
+  <si>
+    <t>dfragrance</t>
+  </si>
+  <si>
+    <t>aispromotionartical</t>
+  </si>
+  <si>
+    <t>aispromotionarticle</t>
+  </si>
+  <si>
+    <t>Is Promotion Article</t>
+  </si>
+  <si>
+    <t>dboolean</t>
+  </si>
+  <si>
+    <t>dmarscampaign</t>
+  </si>
+  <si>
+    <t>ananoparticles</t>
+  </si>
+  <si>
+    <t>Nanoparticles</t>
+  </si>
+  <si>
+    <t>anaturalcosmetics</t>
+  </si>
+  <si>
+    <t>Natural Cosmetics</t>
+  </si>
+  <si>
+    <t>aphneutral</t>
+  </si>
+  <si>
+    <t>pH-Neutral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -2627,9 +2711,9 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="18" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="19" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="18" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -2653,144 +2737,44 @@
     <cellStyle name="Neutral" xfId="18" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="36">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFC00000"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFC00000"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFC00000"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFC00000"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3448,93 +3432,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="87.6640625" customWidth="1"/>
+    <col min="3" max="3" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="50"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="50"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
@@ -3610,7 +3592,7 @@
         <v>159</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,13 +3619,13 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>160</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,12 +3685,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
+      <selection activeCell="B34" sqref="B34"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
       <selection activeCell="A5" sqref="A5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
-      <selection activeCell="B34" sqref="B34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3729,25 +3711,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I12"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3781,10 +3763,10 @@
     </row>
     <row r="2" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>290</v>
+        <v>707</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>101</v>
@@ -3795,10 +3777,10 @@
     </row>
     <row r="3" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>288</v>
+        <v>706</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>101</v>
@@ -3812,7 +3794,7 @@
         <v>224</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>101</v>
@@ -3826,7 +3808,7 @@
         <v>224</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>101</v>
@@ -3840,7 +3822,7 @@
         <v>224</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>101</v>
@@ -3854,7 +3836,7 @@
         <v>224</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>101</v>
@@ -3868,7 +3850,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>101</v>
@@ -3877,12 +3859,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" t="s">
-        <v>274</v>
+    <row r="9" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>101</v>
@@ -3891,12 +3873,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>274</v>
+      <c r="C10" s="25" t="s">
+        <v>293</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>101</v>
@@ -3905,12 +3887,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>273</v>
+      <c r="D11" t="s">
+        <v>274</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>101</v>
@@ -3924,7 +3906,7 @@
         <v>224</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>101</v>
@@ -3933,14 +3915,42 @@
         <v>101</v>
       </c>
     </row>
+    <row r="13" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3953,20 +3963,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4115,11 +4125,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4137,12 +4147,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
     <col min="3" max="3" width="29" style="26" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="26" customWidth="1"/>
     <col min="5" max="16384" width="11" style="26"/>
   </cols>
   <sheetData>
@@ -4307,20 +4317,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4363,14 +4373,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4381,43 +4391,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AG206"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AG217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B107" sqref="B107"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="38.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="27" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.1640625" style="26" customWidth="1"/>
-    <col min="12" max="12" width="26.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="26.125" style="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.875" style="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.125" style="26" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.1640625" style="26"/>
+    <col min="21" max="21" width="17.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="7.125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4485,9 +4495,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="25" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>33</v>
@@ -4496,81 +4506,81 @@
         <v>103</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>87</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>86</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="25" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AG3" s="25" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>143</v>
@@ -4579,7 +4589,7 @@
         <v>102</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>32</v>
@@ -4588,9 +4598,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>144</v>
@@ -4599,15 +4609,15 @@
         <v>102</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>31</v>
@@ -4616,15 +4626,15 @@
         <v>102</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>175</v>
@@ -4633,15 +4643,15 @@
         <v>102</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>175</v>
@@ -4650,15 +4660,15 @@
         <v>102</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>33</v>
@@ -4682,26 +4692,26 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>176</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>31</v>
@@ -4710,15 +4720,15 @@
         <v>102</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>33</v>
@@ -4727,13 +4737,13 @@
         <v>102</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>86</v>
@@ -4745,7 +4755,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
         <v>228</v>
       </c>
@@ -4762,7 +4772,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
         <v>260</v>
       </c>
@@ -4791,7 +4801,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
         <v>259</v>
       </c>
@@ -4820,7 +4830,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>257</v>
       </c>
@@ -4849,7 +4859,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
         <v>258</v>
       </c>
@@ -4878,7 +4888,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>226</v>
       </c>
@@ -4895,9 +4905,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>31</v>
@@ -4906,13 +4916,13 @@
         <v>103</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>233</v>
       </c>
@@ -4926,10 +4936,10 @@
         <v>104</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
         <v>235</v>
       </c>
@@ -4955,7 +4965,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
         <v>234</v>
       </c>
@@ -4972,7 +4982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
         <v>229</v>
       </c>
@@ -4989,7 +4999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
         <v>230</v>
       </c>
@@ -5006,9 +5016,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>33</v>
@@ -5017,13 +5027,13 @@
         <v>103</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>299</v>
+        <v>702</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>298</v>
+        <v>704</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>86</v>
@@ -5032,9 +5042,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B28" s="26" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>31</v>
@@ -5043,15 +5053,15 @@
         <v>176</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>384</v>
+        <v>703</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>144</v>
@@ -5060,15 +5070,15 @@
         <v>102</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B30" s="26" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>31</v>
@@ -5077,15 +5087,15 @@
         <v>102</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>31</v>
@@ -5094,15 +5104,15 @@
         <v>102</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>144</v>
@@ -5111,15 +5121,15 @@
         <v>102</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>31</v>
@@ -5128,15 +5138,15 @@
         <v>176</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>31</v>
@@ -5145,15 +5155,15 @@
         <v>176</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>31</v>
@@ -5162,15 +5172,15 @@
         <v>176</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B36" s="25" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>31</v>
@@ -5179,15 +5189,15 @@
         <v>176</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>31</v>
@@ -5196,120 +5206,120 @@
         <v>176</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B38" s="25" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E40" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F40" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="F40" s="25" t="s">
-        <v>409</v>
-      </c>
       <c r="G40" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B41" s="25" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B42" s="25" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B43" s="25" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B44" s="26" t="s">
         <v>227</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>103</v>
@@ -5321,145 +5331,145 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B45" s="25" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B46" s="25" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B47" s="25" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B49" s="25" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B50" s="25" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B53" s="26" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>31</v>
@@ -5468,15 +5478,15 @@
         <v>103</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B54" s="26" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>31</v>
@@ -5485,13 +5495,13 @@
         <v>103</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B55" s="26" t="s">
         <v>236</v>
       </c>
@@ -5505,10 +5515,10 @@
         <v>105</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B56" s="26" t="s">
         <v>237</v>
       </c>
@@ -5528,7 +5538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B57" s="26" t="s">
         <v>238</v>
       </c>
@@ -5545,7 +5555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B58" s="26" t="s">
         <v>239</v>
       </c>
@@ -5562,7 +5572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
         <v>240</v>
       </c>
@@ -5579,7 +5589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B60" s="26" t="s">
         <v>241</v>
       </c>
@@ -5596,7 +5606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="s">
         <v>242</v>
       </c>
@@ -5613,7 +5623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B62" s="26" t="s">
         <v>243</v>
       </c>
@@ -5630,7 +5640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="s">
         <v>244</v>
       </c>
@@ -5647,7 +5657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="s">
         <v>245</v>
       </c>
@@ -5664,7 +5674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B65" s="26" t="s">
         <v>246</v>
       </c>
@@ -5681,7 +5691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B66" s="26" t="s">
         <v>247</v>
       </c>
@@ -5698,7 +5708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
         <v>249</v>
       </c>
@@ -5715,7 +5725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B68" s="26" t="s">
         <v>248</v>
       </c>
@@ -5732,7 +5742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B69" s="26" t="s">
         <v>250</v>
       </c>
@@ -5749,7 +5759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B70" s="26" t="s">
         <v>251</v>
       </c>
@@ -5766,7 +5776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="26" t="s">
         <v>252</v>
       </c>
@@ -5783,7 +5793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="26" t="s">
         <v>253</v>
       </c>
@@ -5800,7 +5810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="26" t="s">
         <v>254</v>
       </c>
@@ -5817,7 +5827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="26" t="s">
         <v>255</v>
       </c>
@@ -5834,7 +5844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="26" t="s">
         <v>256</v>
       </c>
@@ -5851,151 +5861,151 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="25" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="25" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="25" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G79" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G80" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="25" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G81" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="25" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G82" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="25" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G83" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="25" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>98</v>
@@ -6004,7 +6014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="25" t="s">
         <v>231</v>
       </c>
@@ -6021,117 +6031,117 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="25" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G86" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="25" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G87" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="25" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G88" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="25" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G89" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="25" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G90" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="25" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G91" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="25" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>99</v>
@@ -6140,128 +6150,128 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="25" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G93" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="25" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G94" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="25" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G95" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="25" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G96" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="25" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G97" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="25" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G98" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="25" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G99" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>100</v>
@@ -6273,151 +6283,151 @@
         <v>103</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="26" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G101" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="26" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E102" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="F102" s="26" t="s">
-        <v>485</v>
-      </c>
       <c r="G102" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="26" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G103" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G104" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G105" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="26" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G106" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="26" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G107" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="26" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G108" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="39" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>33</v>
@@ -6426,35 +6436,35 @@
         <v>102</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G109" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="26" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="26" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>31</v>
@@ -6463,15 +6473,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G111" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="26" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>31</v>
@@ -6480,18 +6490,18 @@
         <v>102</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>33</v>
@@ -6500,15 +6510,15 @@
         <v>102</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G113" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B114" s="26" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>31</v>
@@ -6517,18 +6527,18 @@
         <v>102</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G114" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C115" s="26" t="s">
         <v>33</v>
@@ -6537,15 +6547,15 @@
         <v>102</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G115" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B116" s="26" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C116" s="26" t="s">
         <v>31</v>
@@ -6554,15 +6564,15 @@
         <v>102</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G116" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" s="26" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>175</v>
@@ -6571,15 +6581,15 @@
         <v>102</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" s="26" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>175</v>
@@ -6588,15 +6598,15 @@
         <v>102</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G118" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B119" s="26" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C119" s="26" t="s">
         <v>175</v>
@@ -6605,66 +6615,66 @@
         <v>102</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G119" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B120" s="26" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E120" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B121" s="26" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E121" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G121" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" s="26" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E122" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G122" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B123" s="26" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C123" s="26" t="s">
         <v>100</v>
@@ -6676,54 +6686,54 @@
         <v>102</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G123" s="26" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I123" s="27"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B124" s="26" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G124" s="26" t="s">
         <v>32</v>
       </c>
       <c r="I124" s="27"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B125" s="26" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C125" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G125" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="26" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C126" s="26" t="s">
         <v>175</v>
@@ -6732,66 +6742,66 @@
         <v>102</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B127" s="26" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E127" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G127" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B128" s="26" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E128" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G128" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" s="26" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E129" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G129" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" s="26" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C130" s="26" t="s">
         <v>31</v>
@@ -6800,18 +6810,15 @@
         <v>102</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="26" t="s">
-        <v>543</v>
-      </c>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="26" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C131" s="26" t="s">
         <v>33</v>
@@ -6820,15 +6827,18 @@
         <v>102</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G131" s="26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I131" s="27" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B132" s="26" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C132" s="26" t="s">
         <v>31</v>
@@ -6837,18 +6847,18 @@
         <v>102</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G132" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C133" s="26" t="s">
         <v>33</v>
@@ -6857,15 +6867,15 @@
         <v>102</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G133" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" s="26" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C134" s="26" t="s">
         <v>31</v>
@@ -6874,15 +6884,15 @@
         <v>102</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G134" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" s="26" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C135" s="26" t="s">
         <v>31</v>
@@ -6891,15 +6901,15 @@
         <v>102</v>
       </c>
       <c r="F135" s="26" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G135" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" s="26" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C136" s="26" t="s">
         <v>31</v>
@@ -6908,15 +6918,15 @@
         <v>102</v>
       </c>
       <c r="F136" s="26" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G136" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" s="26" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C137" s="26" t="s">
         <v>31</v>
@@ -6925,15 +6935,15 @@
         <v>102</v>
       </c>
       <c r="F137" s="26" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B138" s="26" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C138" s="26" t="s">
         <v>31</v>
@@ -6942,15 +6952,15 @@
         <v>102</v>
       </c>
       <c r="F138" s="26" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G138" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B139" s="26" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C139" s="26" t="s">
         <v>31</v>
@@ -6959,18 +6969,18 @@
         <v>102</v>
       </c>
       <c r="F139" s="26" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C140" s="26" t="s">
         <v>33</v>
@@ -6979,15 +6989,15 @@
         <v>102</v>
       </c>
       <c r="F140" s="26" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G140" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" s="26" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C141" s="26" t="s">
         <v>31</v>
@@ -6996,15 +7006,15 @@
         <v>102</v>
       </c>
       <c r="F141" s="26" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G141" s="26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="26" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C142" s="26" t="s">
         <v>100</v>
@@ -7016,15 +7026,15 @@
         <v>176</v>
       </c>
       <c r="F142" s="26" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G142" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="26" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C143" s="26" t="s">
         <v>100</v>
@@ -7036,15 +7046,15 @@
         <v>176</v>
       </c>
       <c r="F143" s="26" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G143" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C144" s="26" t="s">
         <v>100</v>
@@ -7056,15 +7066,15 @@
         <v>176</v>
       </c>
       <c r="F144" s="26" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G144" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B145" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C145" s="26" t="s">
         <v>100</v>
@@ -7076,15 +7086,15 @@
         <v>176</v>
       </c>
       <c r="F145" s="26" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B146" s="26" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C146" s="26" t="s">
         <v>31</v>
@@ -7093,15 +7103,15 @@
         <v>176</v>
       </c>
       <c r="F146" s="26" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G146" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B147" s="26" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C147" s="26" t="s">
         <v>175</v>
@@ -7110,18 +7120,18 @@
         <v>176</v>
       </c>
       <c r="F147" s="26" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C148" s="26" t="s">
         <v>33</v>
@@ -7130,18 +7140,18 @@
         <v>176</v>
       </c>
       <c r="F148" s="26" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G148" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C149" s="26" t="s">
         <v>33</v>
@@ -7150,18 +7160,18 @@
         <v>176</v>
       </c>
       <c r="F149" s="26" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G149" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C150" s="26" t="s">
         <v>33</v>
@@ -7170,18 +7180,18 @@
         <v>176</v>
       </c>
       <c r="F150" s="26" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G150" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C151" s="26" t="s">
         <v>33</v>
@@ -7190,15 +7200,15 @@
         <v>176</v>
       </c>
       <c r="F151" s="26" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G151" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B152" s="26" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C152" s="26" t="s">
         <v>175</v>
@@ -7207,15 +7217,15 @@
         <v>176</v>
       </c>
       <c r="F152" s="26" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B153" s="26" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C153" s="26" t="s">
         <v>144</v>
@@ -7224,15 +7234,15 @@
         <v>176</v>
       </c>
       <c r="F153" s="26" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B154" s="26" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C154" s="26" t="s">
         <v>144</v>
@@ -7241,32 +7251,32 @@
         <v>176</v>
       </c>
       <c r="F154" s="26" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G154" s="26" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B155" s="26" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E155" s="26" t="s">
         <v>176</v>
       </c>
       <c r="F155" s="26" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" s="26" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C156" s="26" t="s">
         <v>175</v>
@@ -7275,15 +7285,15 @@
         <v>176</v>
       </c>
       <c r="F156" s="26" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G156" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B157" s="26" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C157" s="26" t="s">
         <v>175</v>
@@ -7292,18 +7302,18 @@
         <v>176</v>
       </c>
       <c r="F157" s="26" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G157" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C158" s="26" t="s">
         <v>33</v>
@@ -7312,18 +7322,18 @@
         <v>176</v>
       </c>
       <c r="F158" s="26" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G158" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C159" s="26" t="s">
         <v>33</v>
@@ -7332,15 +7342,15 @@
         <v>176</v>
       </c>
       <c r="F159" s="26" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G159" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B160" s="26" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C160" s="26" t="s">
         <v>175</v>
@@ -7349,18 +7359,18 @@
         <v>176</v>
       </c>
       <c r="F160" s="26" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G160" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C161" s="26" t="s">
         <v>33</v>
@@ -7369,15 +7379,15 @@
         <v>176</v>
       </c>
       <c r="F161" s="26" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G161" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B162" s="26" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C162" s="26" t="s">
         <v>31</v>
@@ -7386,15 +7396,15 @@
         <v>176</v>
       </c>
       <c r="F162" s="26" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G162" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B163" s="26" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C163" s="26" t="s">
         <v>31</v>
@@ -7403,15 +7413,15 @@
         <v>176</v>
       </c>
       <c r="F163" s="26" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G163" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B164" s="26" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C164" s="26" t="s">
         <v>144</v>
@@ -7420,15 +7430,15 @@
         <v>176</v>
       </c>
       <c r="F164" s="26" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G164" s="26" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B165" s="26" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C165" s="26" t="s">
         <v>175</v>
@@ -7437,15 +7447,15 @@
         <v>176</v>
       </c>
       <c r="F165" s="26" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G165" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B166" s="26" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C166" s="26" t="s">
         <v>175</v>
@@ -7454,15 +7464,15 @@
         <v>176</v>
       </c>
       <c r="F166" s="26" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G166" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B167" s="26" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C167" s="26" t="s">
         <v>144</v>
@@ -7471,15 +7481,15 @@
         <v>176</v>
       </c>
       <c r="F167" s="26" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G167" s="26" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B168" s="26" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C168" s="26" t="s">
         <v>175</v>
@@ -7488,18 +7498,18 @@
         <v>176</v>
       </c>
       <c r="F168" s="26" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G168" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C169" s="26" t="s">
         <v>33</v>
@@ -7508,15 +7518,15 @@
         <v>176</v>
       </c>
       <c r="F169" s="26" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G169" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B170" s="26" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C170" s="26" t="s">
         <v>175</v>
@@ -7525,15 +7535,15 @@
         <v>176</v>
       </c>
       <c r="F170" s="26" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G170" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B171" s="26" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C171" s="26" t="s">
         <v>175</v>
@@ -7542,18 +7552,18 @@
         <v>176</v>
       </c>
       <c r="F171" s="26" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G171" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C172" s="26" t="s">
         <v>33</v>
@@ -7562,18 +7572,18 @@
         <v>176</v>
       </c>
       <c r="F172" s="26" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G172" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C173" s="26" t="s">
         <v>33</v>
@@ -7582,49 +7592,49 @@
         <v>176</v>
       </c>
       <c r="F173" s="26" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G173" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B174" s="26" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E174" s="26" t="s">
         <v>176</v>
       </c>
       <c r="F174" s="26" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G174" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B175" s="26" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E175" s="26" t="s">
         <v>176</v>
       </c>
       <c r="F175" s="26" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G175" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B176" s="26" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C176" s="26" t="s">
         <v>31</v>
@@ -7633,15 +7643,15 @@
         <v>176</v>
       </c>
       <c r="F176" s="26" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G176" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B177" s="26" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C177" s="26" t="s">
         <v>31</v>
@@ -7650,15 +7660,15 @@
         <v>176</v>
       </c>
       <c r="F177" s="26" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G177" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B178" s="26" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C178" s="26" t="s">
         <v>144</v>
@@ -7667,15 +7677,15 @@
         <v>176</v>
       </c>
       <c r="F178" s="26" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G178" s="26" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B179" s="26" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C179" s="26" t="s">
         <v>175</v>
@@ -7684,18 +7694,18 @@
         <v>176</v>
       </c>
       <c r="F179" s="26" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G179" s="26" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C180" s="26" t="s">
         <v>33</v>
@@ -7704,18 +7714,18 @@
         <v>176</v>
       </c>
       <c r="F180" s="26" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G180" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C181" s="26" t="s">
         <v>33</v>
@@ -7724,15 +7734,15 @@
         <v>176</v>
       </c>
       <c r="F181" s="26" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G181" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B182" s="26" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C182" s="26" t="s">
         <v>143</v>
@@ -7741,396 +7751,396 @@
         <v>176</v>
       </c>
       <c r="F182" s="26" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G182" s="26" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B183" s="26" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C183" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F183" s="25" t="s">
         <v>118</v>
       </c>
       <c r="G183" s="26" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B184" s="26" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C184" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F184" s="25" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G184" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I184" s="27" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="J184" s="27"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B185" s="26" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C185" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F185" s="26" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G185" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B186" s="26" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C186" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E186" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F186" s="26" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G186" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B187" s="26" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C187" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E187" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F187" s="26" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G187" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188" s="26" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E188" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F188" s="26" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G188" s="26" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189" s="26" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C189" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F189" s="26" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G189" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B190" s="26" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E190" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F190" s="26" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G190" s="26" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B191" s="26" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C191" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E191" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F191" s="26" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G191" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" s="26" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C192" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E192" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F192" s="26" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G192" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B193" s="26" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C193" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E193" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F193" s="26" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G193" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B194" s="26" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F194" s="26" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G194" s="26" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B195" s="26" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C195" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E195" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F195" s="26" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G195" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B196" s="26" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F196" s="26" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G196" s="26" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B197" s="26" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C197" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F197" s="26" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G197" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B198" s="26" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C198" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F198" s="26" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G198" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B199" s="26" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C199" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F199" s="26" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G199" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B200" s="26" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C200" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F200" s="26" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G200" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B201" s="26" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C201" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F201" s="26" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G201" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B202" s="26" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C202" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F202" s="26" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G202" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B203" s="26" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C203" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E203" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G203" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B204" s="26" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E204" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F204" s="26" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G204" s="26" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C205" s="26" t="s">
         <v>33</v>
@@ -8139,18 +8149,18 @@
         <v>176</v>
       </c>
       <c r="F205" s="25" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G205" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="26" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C206" s="26" t="s">
         <v>33</v>
@@ -8159,18 +8169,223 @@
         <v>176</v>
       </c>
       <c r="F206" s="25" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G206" s="26" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E207" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F207" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="G207" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I207" s="26" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E208" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F208" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="G208" s="26" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G209" s="26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="F210" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="G210" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="C211" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="F211" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="G211" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="G212" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F213" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="G213" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I213" s="27" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F214" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="G214" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I214" s="27" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B215" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="C215" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E215" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="F215" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="G215" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I215" s="27" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E216" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="G216" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I216" s="27" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="C217" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="G217" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I217" s="27" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V206"/>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -8178,9 +8393,9 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:AE347"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -8191,91 +8406,91 @@
   </customSheetViews>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B207:B1048576 B4:B5 B1 B110:B141">
-    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="44" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 G4:G5">
-    <cfRule type="duplicateValues" dxfId="43" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14 B13:B14">
-    <cfRule type="duplicateValues" dxfId="41" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207:B99948 B5:B141">
-    <cfRule type="duplicateValues" dxfId="40" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:B206">
-    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183">
-    <cfRule type="duplicateValues" dxfId="38" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E184">
-    <cfRule type="duplicateValues" dxfId="37" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E185">
-    <cfRule type="duplicateValues" dxfId="36" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E186">
-    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E187">
-    <cfRule type="duplicateValues" dxfId="34" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E189">
-    <cfRule type="duplicateValues" dxfId="32" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="duplicateValues" dxfId="31" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E191">
-    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E192">
-    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E193">
-    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E199">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E201">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E202">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -8287,7 +8502,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8295,22 +8510,22 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.875" style="26" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="26" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="26"/>
+    <col min="10" max="10" width="15.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8345,7 +8560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>267</v>
       </c>
@@ -8369,7 +8584,7 @@
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>268</v>
       </c>
@@ -8395,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>269</v>
       </c>
@@ -8415,7 +8630,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>270</v>
       </c>
@@ -8438,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>270</v>
       </c>
@@ -8464,7 +8679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>271</v>
       </c>
@@ -8487,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.95" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>272</v>
       </c>
@@ -8509,14 +8724,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -8528,48 +8743,48 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AA158"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:AA192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B142" sqref="B142"/>
+      <selection pane="bottomRight" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.125" style="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.625" style="39" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.875" style="39" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.125" style="39" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="12.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.875" style="39" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="11" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -8653,147 +8868,229 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>538</v>
+      </c>
       <c r="B2" s="39" t="s">
-        <v>225</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C2" s="25"/>
       <c r="D2" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>101</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>101</v>
+        <v>224</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
       <c r="B4" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>512</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>538</v>
+      </c>
       <c r="B5" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>101</v>
+        <v>224</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="P6" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>363</v>
+        <v>224</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
       <c r="B8" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>351</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>101</v>
+      <c r="D9" s="26" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
       <c r="B10" s="39" t="s">
-        <v>224</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C10" s="25"/>
       <c r="D10" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>101</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>543</v>
-      </c>
+      <c r="A12" s="25"/>
       <c r="B12" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>515</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>366</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -8801,308 +9098,388 @@
         <v>224</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>368</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
       <c r="B15" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>371</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
       <c r="B17" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="39" t="s">
+        <v>709</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B27" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B31" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B32" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="26" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="26" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="O39" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="O40" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>529</v>
+        <v>223</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
@@ -9110,15 +9487,15 @@
         <v>224</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>641</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>643</v>
+        <v>223</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
@@ -9126,50 +9503,65 @@
         <v>224</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>531</v>
+        <v>223</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="O54" s="39" t="s">
-        <v>101</v>
+      <c r="D54" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="39" t="s">
-        <v>229</v>
+      <c r="D55" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>599</v>
+      <c r="D56" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O56" s="39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D57" s="39" t="s">
-        <v>230</v>
+      <c r="D57" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
@@ -9177,15 +9569,15 @@
         <v>224</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>649</v>
+        <v>223</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
@@ -9193,15 +9585,15 @@
         <v>224</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>603</v>
+        <v>223</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
@@ -9209,1093 +9601,1268 @@
         <v>224</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>657</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>605</v>
+        <v>223</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K64" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="N64" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B65" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K65" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N65" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="49"/>
       <c r="B66" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K66" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="N66" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B67" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G67" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K67" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="N67" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B68" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D68" s="26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D68" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G68" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K68" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N68" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="49"/>
       <c r="B69" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G69" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K69" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="N69" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B70" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B71" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D71" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="O71" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="49"/>
       <c r="B72" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B73" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B74" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D74" s="26" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="39" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B75" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B76" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B77" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D77" s="26" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D77" s="48" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="49"/>
       <c r="B78" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D78" s="48" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B79" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D79" s="25" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D79" s="26" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B80" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D80" s="25" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D80" s="26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B81" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D81" s="25" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D81" s="26" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B82" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B83" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B84" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B85" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B86" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="O86" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B87" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="26" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D87" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="O87" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="49"/>
       <c r="B88" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="O88" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B89" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D89" s="26" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D89" s="39" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B90" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B91" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D91" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D91" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B92" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B93" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D93" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D93" s="26" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B94" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D94" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="P94" s="25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D94" s="39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B95" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D95" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="P95" s="39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B96" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="45" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="26" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B97" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D97" s="39" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="26" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B98" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D98" s="40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="39" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B99" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D99" s="39" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B100" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D100" s="39" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D100" s="26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B101" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D101" s="25" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D101" s="26" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B102" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D102" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D102" s="26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B103" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="25" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D103" s="26" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B104" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D104" s="25" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D104" s="26" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B105" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D105" s="25" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D105" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B106" s="39" t="s">
         <v>224</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B107" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D107" s="39" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B108" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D108" s="25" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D108" s="26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B109" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D109" s="25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D109" s="39" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B110" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D110" s="39" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B111" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D111" s="25" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D111" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
       <c r="B112" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="C112" s="25"/>
+      <c r="D112" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="25"/>
+      <c r="S112" s="25"/>
+      <c r="T112" s="25"/>
+      <c r="U112" s="25"/>
+      <c r="V112" s="25"/>
+      <c r="W112" s="25"/>
+      <c r="X112" s="25"/>
+      <c r="Y112" s="25"/>
+      <c r="Z112" s="25"/>
+      <c r="AA112" s="25"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B113" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D113" s="25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D113" s="26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A114" s="25"/>
       <c r="B114" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="C114" s="25"/>
+      <c r="D114" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+      <c r="Q114" s="25"/>
+      <c r="R114" s="25"/>
+      <c r="S114" s="25"/>
+      <c r="T114" s="25"/>
+      <c r="U114" s="25"/>
+      <c r="V114" s="25"/>
+      <c r="W114" s="25"/>
+      <c r="X114" s="25"/>
+      <c r="Y114" s="25"/>
+      <c r="Z114" s="25"/>
+      <c r="AA114" s="25"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B115" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D115" s="25" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D115" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
       <c r="B116" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="C116" s="25"/>
+      <c r="D116" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="25"/>
+      <c r="R116" s="25"/>
+      <c r="S116" s="25"/>
+      <c r="T116" s="25"/>
+      <c r="U116" s="25"/>
+      <c r="V116" s="25"/>
+      <c r="W116" s="25"/>
+      <c r="X116" s="25"/>
+      <c r="Y116" s="25"/>
+      <c r="Z116" s="25"/>
+      <c r="AA116" s="25"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B117" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D117" s="25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D117" s="26" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B118" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D118" s="25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D118" s="39" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B119" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D119" s="25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D119" s="26" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B120" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D120" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D120" s="26" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B121" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D121" s="25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D121" s="26" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B122" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D122" s="25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D122" s="26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B123" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D123" s="25" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D123" s="26" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B124" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D124" s="25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="51"/>
+      <c r="D124" s="26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B125" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D125" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F125" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K125" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="N125" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B126" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D126" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="G126" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K126" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="N126" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B127" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D127" s="39" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B128" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D128" s="48" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A129" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B129" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D129" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="O129" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A130" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A130" s="25"/>
       <c r="B130" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D130" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="P130" s="25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A131" s="51"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="25"/>
+      <c r="P130" s="25"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="25"/>
+      <c r="S130" s="25"/>
+      <c r="T130" s="25"/>
+      <c r="U130" s="25"/>
+      <c r="V130" s="25"/>
+      <c r="W130" s="25"/>
+      <c r="X130" s="25"/>
+      <c r="Y130" s="25"/>
+      <c r="Z130" s="25"/>
+      <c r="AA130" s="25"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B131" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D131" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="P131" s="39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A132" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B132" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D132" s="45" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A133" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B133" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D133" s="39" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A134" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B134" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D134" s="39" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A135" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B135" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D135" s="39" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A136" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B136" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D136" s="39" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A137" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B137" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D137" s="39" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B138" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D138" s="39" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B139" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D139" s="39" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B140" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D140" s="39" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A141" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B141" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D141" s="39" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A142" s="51"/>
+        <v>225</v>
+      </c>
+      <c r="D141" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="P141" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B142" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D142" s="39" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A143" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D142" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="P142" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A143" s="49"/>
       <c r="B143" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D143" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A144" s="51"/>
+      <c r="D143" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="P143" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B144" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D144" s="39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A145" s="51"/>
+        <v>225</v>
+      </c>
+      <c r="D144" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="P144" s="39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B145" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A146" s="51"/>
+        <v>224</v>
+      </c>
+      <c r="D145" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="P145" s="39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="49"/>
       <c r="B146" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D146" s="39" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A147"/>
-      <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
-      <c r="G147"/>
-      <c r="H147"/>
-      <c r="I147"/>
-      <c r="J147"/>
-      <c r="K147"/>
-      <c r="L147"/>
-      <c r="M147"/>
-      <c r="N147"/>
-      <c r="O147"/>
-      <c r="P147"/>
-      <c r="Q147"/>
-      <c r="R147"/>
-      <c r="S147"/>
-      <c r="T147"/>
-      <c r="U147"/>
-      <c r="V147"/>
-      <c r="W147"/>
-      <c r="X147"/>
-      <c r="Y147"/>
-      <c r="Z147"/>
-      <c r="AA147"/>
-    </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A148"/>
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
-      <c r="I148"/>
-      <c r="J148"/>
-      <c r="K148"/>
-      <c r="L148"/>
-      <c r="M148"/>
-      <c r="N148"/>
-      <c r="O148"/>
-      <c r="P148"/>
-      <c r="Q148"/>
-      <c r="R148"/>
-      <c r="S148"/>
-      <c r="T148"/>
-      <c r="U148"/>
-      <c r="V148"/>
-      <c r="W148"/>
-      <c r="X148"/>
-      <c r="Y148"/>
-      <c r="Z148"/>
-      <c r="AA148"/>
-    </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A149"/>
-      <c r="B149"/>
-      <c r="C149"/>
-      <c r="D149"/>
-      <c r="E149"/>
-      <c r="F149"/>
-      <c r="G149"/>
-      <c r="H149"/>
-      <c r="I149"/>
-      <c r="J149"/>
-      <c r="K149"/>
-      <c r="L149"/>
-      <c r="M149"/>
-      <c r="N149"/>
-      <c r="O149"/>
-      <c r="P149"/>
-      <c r="Q149"/>
-      <c r="R149"/>
-      <c r="S149"/>
-      <c r="T149"/>
-      <c r="U149"/>
-      <c r="V149"/>
-      <c r="W149"/>
-      <c r="X149"/>
-      <c r="Y149"/>
-      <c r="Z149"/>
-      <c r="AA149"/>
-    </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A150"/>
-      <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
-      <c r="G150"/>
-      <c r="H150"/>
-      <c r="I150"/>
-      <c r="J150"/>
-      <c r="K150"/>
-      <c r="L150"/>
-      <c r="M150"/>
-      <c r="N150"/>
-      <c r="O150"/>
-      <c r="P150"/>
-      <c r="Q150"/>
-      <c r="R150"/>
-      <c r="S150"/>
-      <c r="T150"/>
-      <c r="U150"/>
-      <c r="V150"/>
-      <c r="W150"/>
-      <c r="X150"/>
-      <c r="Y150"/>
-      <c r="Z150"/>
-      <c r="AA150"/>
-    </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A151"/>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
-      <c r="K151"/>
-      <c r="L151"/>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151"/>
-      <c r="P151"/>
-      <c r="Q151"/>
-      <c r="R151"/>
-      <c r="S151"/>
-      <c r="T151"/>
-      <c r="U151"/>
-      <c r="V151"/>
-      <c r="W151"/>
-      <c r="X151"/>
-      <c r="Y151"/>
-      <c r="Z151"/>
-      <c r="AA151"/>
-    </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A152"/>
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
-      <c r="J152"/>
-      <c r="K152"/>
-      <c r="L152"/>
-      <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152"/>
-      <c r="P152"/>
-      <c r="Q152"/>
-      <c r="R152"/>
-      <c r="S152"/>
-      <c r="T152"/>
-      <c r="U152"/>
-      <c r="V152"/>
-      <c r="W152"/>
-      <c r="X152"/>
-      <c r="Y152"/>
-      <c r="Z152"/>
-      <c r="AA152"/>
-    </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A153"/>
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-      <c r="G153"/>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153"/>
-      <c r="K153"/>
-      <c r="L153"/>
-      <c r="M153"/>
-      <c r="N153"/>
-      <c r="O153"/>
-      <c r="P153"/>
-      <c r="Q153"/>
-      <c r="R153"/>
-      <c r="S153"/>
-      <c r="T153"/>
-      <c r="U153"/>
-      <c r="V153"/>
-      <c r="W153"/>
-      <c r="X153"/>
-      <c r="Y153"/>
-      <c r="Z153"/>
-      <c r="AA153"/>
-    </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A154"/>
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
-      <c r="G154"/>
-      <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154"/>
-      <c r="K154"/>
-      <c r="L154"/>
-      <c r="M154"/>
-      <c r="N154"/>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
-      <c r="R154"/>
-      <c r="S154"/>
-      <c r="T154"/>
-      <c r="U154"/>
-      <c r="V154"/>
-      <c r="W154"/>
-      <c r="X154"/>
-      <c r="Y154"/>
-      <c r="Z154"/>
-      <c r="AA154"/>
-    </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A155"/>
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
-      <c r="G155"/>
-      <c r="H155"/>
-      <c r="I155"/>
-      <c r="J155"/>
-      <c r="K155"/>
-      <c r="L155"/>
-      <c r="M155"/>
-      <c r="N155"/>
-      <c r="O155"/>
-      <c r="P155"/>
-      <c r="Q155"/>
-      <c r="R155"/>
-      <c r="S155"/>
-      <c r="T155"/>
-      <c r="U155"/>
-      <c r="V155"/>
-      <c r="W155"/>
-      <c r="X155"/>
-      <c r="Y155"/>
-      <c r="Z155"/>
-      <c r="AA155"/>
-    </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A156"/>
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156"/>
-      <c r="I156"/>
-      <c r="J156"/>
-      <c r="K156"/>
-      <c r="L156"/>
-      <c r="M156"/>
-      <c r="N156"/>
-      <c r="O156"/>
-      <c r="P156"/>
-      <c r="Q156"/>
-      <c r="R156"/>
-      <c r="S156"/>
-      <c r="T156"/>
-      <c r="U156"/>
-      <c r="V156"/>
-      <c r="W156"/>
-      <c r="X156"/>
-      <c r="Y156"/>
-      <c r="Z156"/>
-      <c r="AA156"/>
-    </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A157"/>
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
-      <c r="H157"/>
-      <c r="I157"/>
-      <c r="J157"/>
-      <c r="K157"/>
-      <c r="L157"/>
-      <c r="M157"/>
-      <c r="N157"/>
-      <c r="O157"/>
-      <c r="P157"/>
-      <c r="Q157"/>
-      <c r="R157"/>
-      <c r="S157"/>
-      <c r="T157"/>
-      <c r="U157"/>
-      <c r="V157"/>
-      <c r="W157"/>
-      <c r="X157"/>
-      <c r="Y157"/>
-      <c r="Z157"/>
-      <c r="AA157"/>
-    </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A158"/>
-      <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
-      <c r="H158"/>
-      <c r="I158"/>
-      <c r="J158"/>
-      <c r="K158"/>
-      <c r="L158"/>
-      <c r="M158"/>
-      <c r="N158"/>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
-      <c r="R158"/>
-      <c r="S158"/>
-      <c r="T158"/>
-      <c r="U158"/>
-      <c r="V158"/>
-      <c r="W158"/>
-      <c r="X158"/>
-      <c r="Y158"/>
-      <c r="Z158"/>
-      <c r="AA158"/>
+      <c r="D146" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="P146" s="39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B147" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D147" s="45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B148" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D148" s="45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="49"/>
+      <c r="B149" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D149" s="45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="49"/>
+      <c r="B150" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D150" s="39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="49"/>
+      <c r="B151" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D151" s="39" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="49"/>
+      <c r="B152" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D152" s="39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B153" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D153" s="39" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="49"/>
+      <c r="B154" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D154" s="39" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B155" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D155" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="49"/>
+      <c r="B156" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D156" s="39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B157" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D157" s="39" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B158" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D158" s="39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="49"/>
+      <c r="B159" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D159" s="39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B160" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D160" s="39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="49"/>
+      <c r="B161" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D161" s="39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D162" s="25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D163" s="25" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D166" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D167" s="25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D171" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D173" s="25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="49"/>
+      <c r="B174" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D174" s="39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D175" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="49"/>
+      <c r="B176" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D176" s="39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D177" s="25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="49"/>
+      <c r="B178" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D178" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="49"/>
+      <c r="B179" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D179" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="49"/>
+      <c r="B182" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D182" s="39" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="49"/>
+      <c r="B184" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D184" s="39" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D185" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D187" s="25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="49"/>
+      <c r="B188" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D188" s="39" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D189" s="25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D190" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D191" s="25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D192" s="25" t="s">
+        <v>473</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA146"/>
-  <sortState ref="A2:AA160">
-    <sortCondition ref="B2:B160"/>
-    <sortCondition ref="F2:F160"/>
-    <sortCondition ref="G2:G160"/>
-    <sortCondition ref="D2:D160"/>
+  <autoFilter ref="A1:AA149"/>
+  <sortState ref="A2:AA192">
+    <sortCondition ref="D2:D192"/>
+    <sortCondition ref="B2:B192"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AA594"/>
+    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="130" filter="1" showAutoFilter="1" hiddenRows="1">
       <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10307,63 +10874,11 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA594"/>
-    </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="D4:D5">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D38">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D42">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D64">
-    <cfRule type="duplicateValues" dxfId="5" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D129">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89:D90">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106:D129">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D130:D146">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="0" priority="157"/>
+  <conditionalFormatting sqref="B2:B5000">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIFS($B$2:$B$5000,B21,$D$2:$D$5000,D2)&gt;1</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10372,23 +10887,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G41"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -10473,14 +10988,14 @@
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D7" s="33"/>
       <c r="F7" s="25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -10520,83 +11035,83 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>274</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>274</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="33"/>
       <c r="F14" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D15" s="33"/>
       <c r="F15" s="25" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D16" s="33"/>
       <c r="F16" s="25" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D17" s="33"/>
       <c r="F17" s="25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -10608,43 +11123,43 @@
       </c>
       <c r="D18" s="33"/>
       <c r="F18" s="25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D19" s="33"/>
       <c r="F19" s="25" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D20" s="33"/>
       <c r="F20" s="25" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D21" s="33"/>
       <c r="F21" s="25" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -10661,121 +11176,121 @@
     </row>
     <row r="23" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D23" s="33"/>
       <c r="F23" s="25" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D24" s="33"/>
       <c r="F24" s="25" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D25" s="33"/>
       <c r="F25" s="25" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D26" s="33"/>
       <c r="F26" s="25" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D27" s="33"/>
       <c r="F27" s="25" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D28" s="33"/>
       <c r="F28" s="25" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D29" s="33"/>
       <c r="F29" s="25" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>274</v>
       </c>
       <c r="F30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D31" s="33"/>
       <c r="F31" s="25" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D32" s="33"/>
       <c r="F32" s="25" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -10801,81 +11316,105 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>287</v>
-      </c>
-      <c r="C35" t="s">
-        <v>291</v>
-      </c>
-      <c r="F35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" t="s">
-        <v>291</v>
-      </c>
-      <c r="F36" t="s">
-        <v>145</v>
+    <row r="35" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="25" t="s">
+        <v>706</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="F35" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="F36" s="25" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>705</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>290</v>
-      </c>
-      <c r="C38" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>705</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>296</v>
-      </c>
-      <c r="C39" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>705</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>705</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="F41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="F42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="F43" t="s">
         <v>292</v>
-      </c>
-      <c r="C41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F41" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -10884,12 +11423,12 @@
     <sortCondition ref="B2:B41"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10902,7 +11441,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10910,23 +11449,23 @@
       <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10998,12 +11537,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11014,6 +11553,77 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-24</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
+      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-24</Url>
+      <Description>Z7QZ4QWJDNQ7-73874190-24</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -11191,78 +11801,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
+    <ds:schemaRef ds:uri="2e2046eb-f52d-433a-aad8-97c651e3992c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-24</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
-      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-24</Url>
-      <Description>Z7QZ4QWJDNQ7-73874190-24</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CAC4C16-FDF5-437E-A8C4-D650CA39502E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11279,37 +11851,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
-    <ds:schemaRef ds:uri="2e2046eb-f52d-433a-aad8-97c651e3992c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>